--- a/BackTest/2020-01-22 BackTest TRX.xlsx
+++ b/BackTest/2020-01-22 BackTest TRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2596,14 +2596,10 @@
         <v>-421796.90876817</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="J67" t="n">
-        <v>18.79</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
@@ -2633,19 +2629,11 @@
         <v>-421796.90876817</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2674,19 +2662,11 @@
         <v>-421796.90876817</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="J69" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2715,19 +2695,11 @@
         <v>-409243.09386817</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="J70" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2756,19 +2728,11 @@
         <v>-421796.90876817</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="J71" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2797,19 +2761,11 @@
         <v>-418621.90876817</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J72" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2838,19 +2794,11 @@
         <v>-418621.90876817</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="J73" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2879,19 +2827,11 @@
         <v>-418621.90876817</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="J74" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2920,19 +2860,11 @@
         <v>-418621.90876817</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="J75" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2961,19 +2893,11 @@
         <v>-418621.90876817</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="J76" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3002,19 +2926,11 @@
         <v>-413333.86796817</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="J77" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3043,19 +2959,11 @@
         <v>-413333.86796817</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="J78" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3084,19 +2992,11 @@
         <v>-419480.54666817</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>18.87</v>
-      </c>
-      <c r="J79" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3125,19 +3025,11 @@
         <v>-429922.27676817</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>18.82</v>
-      </c>
-      <c r="J80" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3166,19 +3058,11 @@
         <v>-429922.27676817</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="J81" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3207,19 +3091,11 @@
         <v>-429922.27676817</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="J82" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3248,19 +3124,11 @@
         <v>-629922.2767681701</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>18.81</v>
-      </c>
-      <c r="J83" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3289,19 +3157,11 @@
         <v>-410599.8946681701</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="J84" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3330,19 +3190,11 @@
         <v>-410599.8946681701</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="J85" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3371,19 +3223,11 @@
         <v>-410599.8946681701</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="J86" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3412,19 +3256,11 @@
         <v>-410599.8946681701</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="J87" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3453,19 +3289,11 @@
         <v>-410599.8946681701</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="J88" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3494,19 +3322,11 @@
         <v>-410599.8946681701</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="J89" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3535,19 +3355,11 @@
         <v>-410599.8946681701</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="J90" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3579,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3615,19 +3421,11 @@
         <v>-410599.8946681701</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="J92" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3659,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3695,19 +3487,11 @@
         <v>-504963.2633681701</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J94" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3736,19 +3520,11 @@
         <v>-504963.2633681701</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="J95" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3777,19 +3553,11 @@
         <v>-504963.2633681701</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="J96" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3818,19 +3586,11 @@
         <v>-493163.2633681701</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="J97" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3859,19 +3619,11 @@
         <v>-493163.2633681701</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="J98" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3900,19 +3652,11 @@
         <v>-493781.1569681701</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>18.88</v>
-      </c>
-      <c r="J99" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3941,19 +3685,11 @@
         <v>-493781.1569681701</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="J100" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3982,19 +3718,11 @@
         <v>-493781.1569681701</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="J101" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4023,19 +3751,11 @@
         <v>-115984.9417681701</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="J102" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4064,19 +3784,11 @@
         <v>81533.60343182989</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J103" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4105,19 +3817,11 @@
         <v>183530.9816318299</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>18.96</v>
-      </c>
-      <c r="J104" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4149,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4185,19 +3883,11 @@
         <v>164240.7100318299</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="J106" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4226,19 +3916,11 @@
         <v>163560.5742318299</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>18.97</v>
-      </c>
-      <c r="J107" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4270,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4309,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4348,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4387,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4426,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4465,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4504,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4543,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4582,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4621,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4660,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4699,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4738,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4777,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4816,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4855,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4894,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4933,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4972,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5011,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5050,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5089,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5128,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5167,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5206,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5245,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5284,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5323,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5362,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5401,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5440,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5479,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5518,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5557,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5596,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5635,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5674,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5713,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5749,19 +5203,13 @@
         <v>265116.1483908297</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>18.79</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
-        <v>1.008304949441192</v>
+        <v>1</v>
       </c>
       <c r="M146" t="inlineStr"/>
     </row>
@@ -5788,7 +5236,7 @@
         <v>265116.1483908297</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5821,7 +5269,7 @@
         <v>265116.1483908297</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5854,7 +5302,7 @@
         <v>265146.1483908297</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5887,7 +5335,7 @@
         <v>265146.1483908297</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5920,7 +5368,7 @@
         <v>439456.3483908297</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5953,7 +5401,7 @@
         <v>439456.3483908297</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5986,7 +5434,7 @@
         <v>439456.3483908297</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6019,7 +5467,7 @@
         <v>-7379.622909170226</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6052,7 +5500,7 @@
         <v>-367133.1669091702</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6085,7 +5533,7 @@
         <v>158659.8995908297</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6118,7 +5566,7 @@
         <v>653379.9702908297</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6151,7 +5599,7 @@
         <v>626032.1316908296</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6184,7 +5632,7 @@
         <v>626032.1316908296</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6217,7 +5665,7 @@
         <v>626032.1316908296</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6250,7 +5698,7 @@
         <v>626032.1316908296</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6283,7 +5731,7 @@
         <v>626032.1316908296</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6316,7 +5764,7 @@
         <v>626032.1316908296</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6349,7 +5797,7 @@
         <v>626032.1316908296</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6382,7 +5830,7 @@
         <v>626032.1316908296</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -6415,7 +5863,7 @@
         <v>712457.4720908296</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -6448,7 +5896,7 @@
         <v>706030.8031908296</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -6481,7 +5929,7 @@
         <v>706030.8031908296</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -6514,7 +5962,7 @@
         <v>892946.4301908296</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6547,7 +5995,7 @@
         <v>870774.0555908296</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6580,7 +6028,7 @@
         <v>897114.5742908296</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6613,7 +6061,7 @@
         <v>789489.5653908296</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6646,7 +6094,7 @@
         <v>664055.2786908296</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6679,7 +6127,7 @@
         <v>664055.2786908296</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6712,7 +6160,7 @@
         <v>711125.5586908297</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6745,7 +6193,7 @@
         <v>711125.5586908297</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6778,7 +6226,7 @@
         <v>651237.1157908296</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6811,7 +6259,7 @@
         <v>651237.1157908296</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6844,7 +6292,7 @@
         <v>814453.1524908296</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6877,7 +6325,7 @@
         <v>670488.4466908296</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6910,7 +6358,7 @@
         <v>670488.4466908296</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6943,7 +6391,7 @@
         <v>670915.9192908296</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6976,7 +6424,7 @@
         <v>632616.0715908295</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -7009,7 +6457,7 @@
         <v>632616.0715908295</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -7042,7 +6490,7 @@
         <v>632616.0715908295</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -7075,7 +6523,7 @@
         <v>632616.0715908295</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -7108,7 +6556,7 @@
         <v>632616.0715908295</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -7141,7 +6589,7 @@
         <v>616953.0306908295</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -7174,7 +6622,7 @@
         <v>616953.0306908295</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -7207,7 +6655,7 @@
         <v>659677.0454908295</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -7240,7 +6688,7 @@
         <v>661566.0629908295</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -7273,7 +6721,7 @@
         <v>657261.3896908294</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -7306,7 +6754,7 @@
         <v>657261.3896908294</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7339,7 +6787,7 @@
         <v>1714307.980490829</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7372,7 +6820,7 @@
         <v>1714307.980490829</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7405,7 +6853,7 @@
         <v>1714334.980490829</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7438,7 +6886,7 @@
         <v>1714334.980490829</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -7471,7 +6919,7 @@
         <v>1656829.395190829</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -7504,7 +6952,7 @@
         <v>1638641.135890829</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7537,7 +6985,7 @@
         <v>1638641.135890829</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7570,7 +7018,7 @@
         <v>1636913.435890829</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7603,7 +7051,7 @@
         <v>1636913.435890829</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7636,7 +7084,7 @@
         <v>1637123.21635643</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7669,7 +7117,7 @@
         <v>1634525.017256429</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7702,7 +7150,7 @@
         <v>1475469.20312203</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -11167,7 +10615,7 @@
         <v>-1466563.71880638</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11200,7 +10648,7 @@
         <v>-1342374.53930638</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -11233,7 +10681,7 @@
         <v>-452491.2724063803</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11266,7 +10714,7 @@
         <v>-452491.2724063803</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11299,7 +10747,7 @@
         <v>-452324.9859063803</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -11332,7 +10780,7 @@
         <v>-514660.0697063803</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -11365,7 +10813,7 @@
         <v>-212207.9230063803</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -11398,7 +10846,7 @@
         <v>-112558.3889063803</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11431,7 +10879,7 @@
         <v>11741.61109361968</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12421,7 +11869,7 @@
         <v>-419687093.3625853</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -12454,7 +11902,7 @@
         <v>-419687093.3625853</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12487,7 +11935,7 @@
         <v>-419687093.3625853</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12520,7 +11968,7 @@
         <v>-419690295.8328853</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12553,7 +12001,7 @@
         <v>-419660481.1996853</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12586,7 +12034,7 @@
         <v>-419660481.1996853</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12619,7 +12067,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12652,7 +12100,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12685,7 +12133,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12718,14 +12166,10 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="J357" t="n">
-        <v>19.15</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
       <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
@@ -12755,17 +12199,11 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12794,19 +12232,11 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="J359" t="n">
-        <v>19.15</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12835,7 +12265,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12868,7 +12298,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12901,7 +12331,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12934,7 +12364,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12967,7 +12397,7 @@
         <v>-419854914.6351796</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13000,7 +12430,7 @@
         <v>-419854914.6351796</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13066,7 +12496,7 @@
         <v>-419770403.0684797</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13099,7 +12529,7 @@
         <v>-419803199.7833797</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13330,17 +12760,11 @@
         <v>-418810993.5127797</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>19.25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -13369,17 +12793,11 @@
         <v>-417896258.1047797</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>19.25</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -13408,15 +12826,11 @@
         <v>-417806177.3215796</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -13449,11 +12863,7 @@
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +12896,7 @@
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13523,11 +12929,7 @@
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -13560,11 +12962,7 @@
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13597,11 +12995,7 @@
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13634,11 +13028,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13671,11 +13061,7 @@
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13704,17 +13090,11 @@
         <v>-417930385.4452809</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
-      </c>
-      <c r="I385" t="n">
-        <v>19.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13743,17 +13123,11 @@
         <v>-418794126.9473809</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13782,17 +13156,11 @@
         <v>-418794126.9473809</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
-      </c>
-      <c r="I387" t="n">
-        <v>19.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13821,17 +13189,11 @@
         <v>-418715254.7866809</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
-      </c>
-      <c r="I388" t="n">
-        <v>19.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13860,17 +13222,11 @@
         <v>-418723956.9827809</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
-      </c>
-      <c r="I389" t="n">
-        <v>19.32</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13899,17 +13255,11 @@
         <v>-418723956.9827809</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>19.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13938,17 +13288,11 @@
         <v>-418723956.9827809</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>19.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13977,17 +13321,11 @@
         <v>-418722289.7088809</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>19.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -14016,17 +13354,11 @@
         <v>-418722289.7088809</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -14055,17 +13387,11 @@
         <v>-418896962.7088809</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -14094,17 +13420,11 @@
         <v>-418896962.7088809</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
-      </c>
-      <c r="I395" t="n">
-        <v>19.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14133,17 +13453,11 @@
         <v>-418891962.7088809</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>19.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -14172,17 +13486,11 @@
         <v>-418891962.7088809</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
-      </c>
-      <c r="I397" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -14211,17 +13519,11 @@
         <v>-418991106.2431809</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
-      </c>
-      <c r="I398" t="n">
-        <v>19.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -14250,17 +13552,11 @@
         <v>-418866095.7191809</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
-      </c>
-      <c r="I399" t="n">
-        <v>19.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -14289,17 +13585,11 @@
         <v>-418866095.7191809</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
-      </c>
-      <c r="I400" t="n">
-        <v>19.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -14328,17 +13618,11 @@
         <v>-419075295.579581</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>19.27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -14367,17 +13651,11 @@
         <v>-419169656.1085809</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>19.25</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -14406,17 +13684,11 @@
         <v>-419169656.1085809</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>19.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -14445,17 +13717,11 @@
         <v>-419169656.1085809</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>19.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -14484,17 +13750,11 @@
         <v>-419118042.962081</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>19.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -14523,17 +13783,11 @@
         <v>-419118042.962081</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
-      </c>
-      <c r="I406" t="n">
-        <v>19.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -14562,17 +13816,11 @@
         <v>-419173454.0969809</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
-      </c>
-      <c r="I407" t="n">
-        <v>19.28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -14601,17 +13849,11 @@
         <v>-419417476.638081</v>
       </c>
       <c r="H408" t="n">
-        <v>1</v>
-      </c>
-      <c r="I408" t="n">
-        <v>19.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -14640,17 +13882,11 @@
         <v>-419438026.4052809</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
-      </c>
-      <c r="I409" t="n">
-        <v>19.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -14679,17 +13915,11 @@
         <v>-419438026.4052809</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
-      </c>
-      <c r="I410" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -14718,17 +13948,11 @@
         <v>-419438026.4052809</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
-      </c>
-      <c r="I411" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -14757,17 +13981,11 @@
         <v>-419596618.858681</v>
       </c>
       <c r="H412" t="n">
-        <v>1</v>
-      </c>
-      <c r="I412" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14796,17 +14014,11 @@
         <v>-419596618.858681</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
-      </c>
-      <c r="I413" t="n">
-        <v>19.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14835,17 +14047,11 @@
         <v>-419600779.3150809</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
-      </c>
-      <c r="I414" t="n">
-        <v>19.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14874,17 +14080,11 @@
         <v>-418707035.246181</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
-      </c>
-      <c r="I415" t="n">
-        <v>19.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14913,17 +14113,11 @@
         <v>-418679476.791581</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
-      </c>
-      <c r="I416" t="n">
-        <v>19.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14952,17 +14146,11 @@
         <v>-418679476.791581</v>
       </c>
       <c r="H417" t="n">
-        <v>1</v>
-      </c>
-      <c r="I417" t="n">
-        <v>19.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14991,17 +14179,11 @@
         <v>-418679637.300481</v>
       </c>
       <c r="H418" t="n">
-        <v>1</v>
-      </c>
-      <c r="I418" t="n">
-        <v>19.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -15030,17 +14212,11 @@
         <v>-418678185.3541809</v>
       </c>
       <c r="H419" t="n">
-        <v>1</v>
-      </c>
-      <c r="I419" t="n">
-        <v>19.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -15069,17 +14245,11 @@
         <v>-418683185.3541809</v>
       </c>
       <c r="H420" t="n">
-        <v>1</v>
-      </c>
-      <c r="I420" t="n">
-        <v>19.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -15108,17 +14278,11 @@
         <v>-418758477.8759809</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>19.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -15147,17 +14311,11 @@
         <v>-418933792.0816809</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>19.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -15186,17 +14344,11 @@
         <v>-418933792.0816809</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>19.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -15225,17 +14377,11 @@
         <v>-418992616.5959809</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>19.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -15264,17 +14410,11 @@
         <v>-418992616.5959809</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>19.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -15303,17 +14443,11 @@
         <v>-418745397.9253809</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>19.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -15342,17 +14476,11 @@
         <v>-418745367.9253809</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>19.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -15381,17 +14509,11 @@
         <v>-418859301.1197809</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -15428,7 +14550,7 @@
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L429" t="n">
@@ -15459,11 +14581,9 @@
         <v>-418752428.9568316</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
-      </c>
-      <c r="I430" t="n">
-        <v>19.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -15537,11 +14657,9 @@
         <v>-418773747.3530316</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
-      </c>
-      <c r="I432" t="n">
-        <v>19.17</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -15615,11 +14733,9 @@
         <v>-417837388.6206316</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
-      </c>
-      <c r="I434" t="n">
-        <v>19.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -15654,11 +14770,9 @@
         <v>-417994238.6206316</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
-      </c>
-      <c r="I435" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -15693,11 +14807,9 @@
         <v>-417994134.4540316</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
-      </c>
-      <c r="I436" t="n">
-        <v>19.13</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -15771,11 +14883,9 @@
         <v>-418033528.4982316</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
-      </c>
-      <c r="I438" t="n">
-        <v>19.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15810,11 +14920,9 @@
         <v>-418036086.5327316</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>19.18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -16512,9 +15620,11 @@
         <v>-417607412.0511934</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>19.23</v>
+      </c>
       <c r="J457" t="inlineStr"/>
       <c r="K457" t="inlineStr">
         <is>
@@ -16549,9 +15659,11 @@
         <v>-417595244.0924934</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>19.23</v>
+      </c>
       <c r="J458" t="inlineStr"/>
       <c r="K458" t="inlineStr">
         <is>
@@ -16771,11 +15883,9 @@
         <v>-417703051.9564934</v>
       </c>
       <c r="H464" t="n">
-        <v>1</v>
-      </c>
-      <c r="I464" t="n">
-        <v>19.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -16847,11 +15957,9 @@
         <v>-417719054.6064934</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -16886,11 +15994,9 @@
         <v>-417719654.6064934</v>
       </c>
       <c r="H467" t="n">
-        <v>1</v>
-      </c>
-      <c r="I467" t="n">
-        <v>19.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16925,11 +16031,9 @@
         <v>-417709654.6064934</v>
       </c>
       <c r="H468" t="n">
-        <v>1</v>
-      </c>
-      <c r="I468" t="n">
-        <v>19.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -17075,11 +16179,9 @@
         <v>-417660689.8079934</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
-      </c>
-      <c r="I472" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -17151,11 +16253,9 @@
         <v>-417567234.7274933</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -17190,11 +16290,9 @@
         <v>-417603329.2745934</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>19.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -17229,11 +16327,9 @@
         <v>-417603329.2745934</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -17268,11 +16364,9 @@
         <v>-417603329.2745934</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -17307,11 +16401,9 @@
         <v>-417534530.0519934</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
-      </c>
-      <c r="I478" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -17383,11 +16475,9 @@
         <v>-416802398.2156934</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
-      </c>
-      <c r="I480" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -17496,18 +16586,16 @@
         <v>-416785140.4005933</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L483" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L483" t="inlineStr"/>
       <c r="M483" t="inlineStr"/>
     </row>
     <row r="484">
@@ -17533,15 +16621,11 @@
         <v>-416785140.4005933</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -17570,15 +16654,11 @@
         <v>-416818815.2002934</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -17607,15 +16687,11 @@
         <v>-416818815.2002934</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -17644,15 +16720,11 @@
         <v>-416715959.8094934</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -17681,15 +16753,11 @@
         <v>-416997512.7714934</v>
       </c>
       <c r="H488" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -17722,11 +16790,7 @@
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -17755,15 +16819,11 @@
         <v>-417054132.8902934</v>
       </c>
       <c r="H490" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17796,11 +16856,7 @@
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17829,17 +16885,11 @@
         <v>-417053830.6308933</v>
       </c>
       <c r="H492" t="n">
-        <v>1</v>
-      </c>
-      <c r="I492" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17868,17 +16918,11 @@
         <v>-417023150.6921933</v>
       </c>
       <c r="H493" t="n">
-        <v>1</v>
-      </c>
-      <c r="I493" t="n">
-        <v>19.24</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17907,17 +16951,11 @@
         <v>-417025904.3807933</v>
       </c>
       <c r="H494" t="n">
-        <v>1</v>
-      </c>
-      <c r="I494" t="n">
-        <v>19.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17946,17 +16984,11 @@
         <v>-417024704.3807933</v>
       </c>
       <c r="H495" t="n">
-        <v>1</v>
-      </c>
-      <c r="I495" t="n">
-        <v>19.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I495" t="inlineStr"/>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17985,17 +17017,11 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H496" t="n">
-        <v>1</v>
-      </c>
-      <c r="I496" t="n">
-        <v>19.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -18024,17 +17050,11 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H497" t="n">
-        <v>1</v>
-      </c>
-      <c r="I497" t="n">
-        <v>19.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I497" t="inlineStr"/>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -18063,17 +17083,11 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H498" t="n">
-        <v>1</v>
-      </c>
-      <c r="I498" t="n">
-        <v>19.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I498" t="inlineStr"/>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -18102,17 +17116,11 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H499" t="n">
-        <v>1</v>
-      </c>
-      <c r="I499" t="n">
-        <v>19.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I499" t="inlineStr"/>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -18141,17 +17149,11 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H500" t="n">
-        <v>1</v>
-      </c>
-      <c r="I500" t="n">
-        <v>19.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I500" t="inlineStr"/>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -18180,17 +17182,11 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H501" t="n">
-        <v>1</v>
-      </c>
-      <c r="I501" t="n">
-        <v>19.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I501" t="inlineStr"/>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -18219,17 +17215,11 @@
         <v>-416670896.2229666</v>
       </c>
       <c r="H502" t="n">
-        <v>1</v>
-      </c>
-      <c r="I502" t="n">
-        <v>19.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I502" t="inlineStr"/>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -18258,17 +17248,11 @@
         <v>-416671114.1629665</v>
       </c>
       <c r="H503" t="n">
-        <v>1</v>
-      </c>
-      <c r="I503" t="n">
-        <v>19.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -18297,17 +17281,11 @@
         <v>-416671114.1629665</v>
       </c>
       <c r="H504" t="n">
-        <v>1</v>
-      </c>
-      <c r="I504" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -18336,17 +17314,11 @@
         <v>-416671114.1629665</v>
       </c>
       <c r="H505" t="n">
-        <v>1</v>
-      </c>
-      <c r="I505" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -18375,17 +17347,11 @@
         <v>-416298842.7106665</v>
       </c>
       <c r="H506" t="n">
-        <v>1</v>
-      </c>
-      <c r="I506" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -18414,17 +17380,11 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H507" t="n">
-        <v>1</v>
-      </c>
-      <c r="I507" t="n">
-        <v>19.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I507" t="inlineStr"/>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -18453,17 +17413,11 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H508" t="n">
-        <v>1</v>
-      </c>
-      <c r="I508" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -18492,17 +17446,11 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H509" t="n">
-        <v>1</v>
-      </c>
-      <c r="I509" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I509" t="inlineStr"/>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -18531,17 +17479,11 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H510" t="n">
-        <v>1</v>
-      </c>
-      <c r="I510" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I510" t="inlineStr"/>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -18570,17 +17512,11 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H511" t="n">
-        <v>1</v>
-      </c>
-      <c r="I511" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I511" t="inlineStr"/>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -18609,17 +17545,11 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H512" t="n">
-        <v>1</v>
-      </c>
-      <c r="I512" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -18648,17 +17578,11 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H513" t="n">
-        <v>1</v>
-      </c>
-      <c r="I513" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -18687,17 +17611,11 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H514" t="n">
-        <v>1</v>
-      </c>
-      <c r="I514" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -18726,17 +17644,11 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H515" t="n">
-        <v>1</v>
-      </c>
-      <c r="I515" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18765,17 +17677,11 @@
         <v>-416690219.2803665</v>
       </c>
       <c r="H516" t="n">
-        <v>1</v>
-      </c>
-      <c r="I516" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18804,17 +17710,11 @@
         <v>-416604288.5176665</v>
       </c>
       <c r="H517" t="n">
-        <v>1</v>
-      </c>
-      <c r="I517" t="n">
-        <v>19.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18843,17 +17743,11 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H518" t="n">
-        <v>1</v>
-      </c>
-      <c r="I518" t="n">
-        <v>19.21</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18882,17 +17776,11 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H519" t="n">
-        <v>1</v>
-      </c>
-      <c r="I519" t="n">
-        <v>19.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18921,17 +17809,11 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H520" t="n">
-        <v>1</v>
-      </c>
-      <c r="I520" t="n">
-        <v>19.22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18960,17 +17842,11 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H521" t="n">
-        <v>1</v>
-      </c>
-      <c r="I521" t="n">
-        <v>19.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18999,17 +17875,11 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H522" t="n">
-        <v>1</v>
-      </c>
-      <c r="I522" t="n">
-        <v>19.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -19038,17 +17908,11 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H523" t="n">
-        <v>1</v>
-      </c>
-      <c r="I523" t="n">
-        <v>19.22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -19077,17 +17941,11 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H524" t="n">
-        <v>1</v>
-      </c>
-      <c r="I524" t="n">
-        <v>19.22</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -19116,17 +17974,11 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H525" t="n">
-        <v>1</v>
-      </c>
-      <c r="I525" t="n">
-        <v>19.22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -19155,17 +18007,11 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H526" t="n">
-        <v>1</v>
-      </c>
-      <c r="I526" t="n">
-        <v>19.22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -19194,17 +18040,11 @@
         <v>-416691248.3421665</v>
       </c>
       <c r="H527" t="n">
-        <v>1</v>
-      </c>
-      <c r="I527" t="n">
-        <v>19.22</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -19233,17 +18073,11 @@
         <v>-417067574.0079665</v>
       </c>
       <c r="H528" t="n">
-        <v>1</v>
-      </c>
-      <c r="I528" t="n">
-        <v>19.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -19272,17 +18106,11 @@
         <v>-417067086.3879665</v>
       </c>
       <c r="H529" t="n">
-        <v>1</v>
-      </c>
-      <c r="I529" t="n">
-        <v>19.16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -19311,17 +18139,11 @@
         <v>-417067086.3879665</v>
       </c>
       <c r="H530" t="n">
-        <v>1</v>
-      </c>
-      <c r="I530" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -19350,17 +18172,11 @@
         <v>-417067256.5879665</v>
       </c>
       <c r="H531" t="n">
-        <v>1</v>
-      </c>
-      <c r="I531" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -19389,17 +18205,11 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H532" t="n">
-        <v>1</v>
-      </c>
-      <c r="I532" t="n">
-        <v>19.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -19428,17 +18238,11 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H533" t="n">
-        <v>1</v>
-      </c>
-      <c r="I533" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -19467,17 +18271,11 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H534" t="n">
-        <v>1</v>
-      </c>
-      <c r="I534" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -19506,17 +18304,11 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H535" t="n">
-        <v>1</v>
-      </c>
-      <c r="I535" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -19545,17 +18337,11 @@
         <v>-416402370.0021665</v>
       </c>
       <c r="H536" t="n">
-        <v>1</v>
-      </c>
-      <c r="I536" t="n">
-        <v>19.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -19584,17 +18370,11 @@
         <v>-415810873.9685665</v>
       </c>
       <c r="H537" t="n">
-        <v>1</v>
-      </c>
-      <c r="I537" t="n">
-        <v>19.23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -19628,12 +18408,10 @@
       <c r="I538" t="n">
         <v>19.26</v>
       </c>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -19662,15 +18440,15 @@
         <v>-415881865.3212665</v>
       </c>
       <c r="H539" t="n">
-        <v>1</v>
-      </c>
-      <c r="I539" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="J539" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K539" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L539" t="n">
@@ -19701,13 +18479,17 @@
         <v>-415881891.3901665</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
-      </c>
-      <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I540" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J540" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K540" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L540" t="n">
@@ -19743,12 +18525,10 @@
       <c r="I541" t="n">
         <v>19.18</v>
       </c>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19777,15 +18557,15 @@
         <v>-415855912.3490665</v>
       </c>
       <c r="H542" t="n">
-        <v>1</v>
-      </c>
-      <c r="I542" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J542" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>19.18</v>
+      </c>
       <c r="K542" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L542" t="n">
@@ -19816,15 +18596,15 @@
         <v>-415855912.3490665</v>
       </c>
       <c r="H543" t="n">
-        <v>1</v>
-      </c>
-      <c r="I543" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="J543" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>19.18</v>
+      </c>
       <c r="K543" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L543" t="n">
@@ -19860,12 +18640,10 @@
       <c r="I544" t="n">
         <v>19.26</v>
       </c>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19899,10 +18677,12 @@
       <c r="I545" t="n">
         <v>19.21</v>
       </c>
-      <c r="J545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K545" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L545" t="n">
@@ -19933,15 +18713,15 @@
         <v>-415690640.7933859</v>
       </c>
       <c r="H546" t="n">
-        <v>1</v>
-      </c>
-      <c r="I546" t="n">
-        <v>19.21</v>
-      </c>
-      <c r="J546" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K546" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L546" t="n">
@@ -19972,12 +18752,12 @@
         <v>-415699775.3062859</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="J547" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20011,12 +18791,12 @@
         <v>-415659775.3062859</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="J548" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20050,12 +18830,12 @@
         <v>-415607775.3062859</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="J549" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20089,12 +18869,12 @@
         <v>-415607775.3062859</v>
       </c>
       <c r="H550" t="n">
-        <v>1</v>
-      </c>
-      <c r="I550" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J550" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20128,12 +18908,12 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J551" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20167,12 +18947,12 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H552" t="n">
-        <v>1</v>
-      </c>
-      <c r="I552" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J552" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20206,12 +18986,12 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H553" t="n">
-        <v>1</v>
-      </c>
-      <c r="I553" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J553" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20245,12 +19025,12 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H554" t="n">
-        <v>1</v>
-      </c>
-      <c r="I554" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J554" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20284,12 +19064,12 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J555" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20323,12 +19103,12 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H556" t="n">
-        <v>1</v>
-      </c>
-      <c r="I556" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J556" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20362,12 +19142,12 @@
         <v>-415714284.630486</v>
       </c>
       <c r="H557" t="n">
-        <v>1</v>
-      </c>
-      <c r="I557" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J557" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20401,12 +19181,12 @@
         <v>-415714284.630486</v>
       </c>
       <c r="H558" t="n">
-        <v>1</v>
-      </c>
-      <c r="I558" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J558" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20440,12 +19220,12 @@
         <v>-415724432.2319859</v>
       </c>
       <c r="H559" t="n">
-        <v>1</v>
-      </c>
-      <c r="I559" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J559" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20479,12 +19259,12 @@
         <v>-415724680.0341859</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="J560" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20518,12 +19298,12 @@
         <v>-415711584.2441859</v>
       </c>
       <c r="H561" t="n">
-        <v>1</v>
-      </c>
-      <c r="I561" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J561" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20557,12 +19337,12 @@
         <v>-415711584.2441859</v>
       </c>
       <c r="H562" t="n">
-        <v>1</v>
-      </c>
-      <c r="I562" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="J562" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20596,12 +19376,12 @@
         <v>-416096110.3700859</v>
       </c>
       <c r="H563" t="n">
-        <v>1</v>
-      </c>
-      <c r="I563" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="J563" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20635,12 +19415,12 @@
         <v>-416064236.4594859</v>
       </c>
       <c r="H564" t="n">
-        <v>1</v>
-      </c>
-      <c r="I564" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="J564" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20674,12 +19454,12 @@
         <v>-415846914.5205859</v>
       </c>
       <c r="H565" t="n">
-        <v>1</v>
-      </c>
-      <c r="I565" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J565" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20713,12 +19493,12 @@
         <v>-415677789.3288859</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J566" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20752,12 +19532,12 @@
         <v>-415584820.375484</v>
       </c>
       <c r="H567" t="n">
-        <v>1</v>
-      </c>
-      <c r="I567" t="n">
-        <v>19.31</v>
-      </c>
-      <c r="J567" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20794,7 +19574,9 @@
         <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
+      <c r="J568" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20828,12 +19610,12 @@
         <v>-415532310.203784</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>19.31</v>
-      </c>
-      <c r="J569" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20867,12 +19649,12 @@
         <v>-416099996.5913841</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="J570" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20906,12 +19688,12 @@
         <v>-416099996.5913841</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J571" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20945,12 +19727,12 @@
         <v>-415182132.0684432</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J572" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20984,12 +19766,12 @@
         <v>-415186521.0056432</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>19.34</v>
-      </c>
-      <c r="J573" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21023,12 +19805,12 @@
         <v>-415109132.0132433</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="J574" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21062,12 +19844,12 @@
         <v>-415083343.3041432</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="J575" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21101,12 +19883,12 @@
         <v>-415083418.3041432</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>19.34</v>
-      </c>
-      <c r="J576" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21140,12 +19922,12 @@
         <v>-415115025.9041433</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J577" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21179,12 +19961,12 @@
         <v>-415115025.9041433</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="J578" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21218,12 +20000,12 @@
         <v>-415081985.6764433</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="J579" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21257,12 +20039,12 @@
         <v>-415086817.8419433</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J580" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21296,12 +20078,12 @@
         <v>-415087766.3419433</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="J581" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21335,12 +20117,12 @@
         <v>-415151852.6269433</v>
       </c>
       <c r="H582" t="n">
-        <v>1</v>
-      </c>
-      <c r="I582" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="J582" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21374,12 +20156,12 @@
         <v>-415151803.6199433</v>
       </c>
       <c r="H583" t="n">
-        <v>1</v>
-      </c>
-      <c r="I583" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J583" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21413,12 +20195,12 @@
         <v>-415435661.3456433</v>
       </c>
       <c r="H584" t="n">
-        <v>1</v>
-      </c>
-      <c r="I584" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J584" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21452,12 +20234,12 @@
         <v>-415433732.2956433</v>
       </c>
       <c r="H585" t="n">
-        <v>1</v>
-      </c>
-      <c r="I585" t="n">
-        <v>19.2</v>
-      </c>
-      <c r="J585" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21491,12 +20273,12 @@
         <v>-415433438.9321433</v>
       </c>
       <c r="H586" t="n">
-        <v>1</v>
-      </c>
-      <c r="I586" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="J586" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21530,12 +20312,12 @@
         <v>-415434513.4321433</v>
       </c>
       <c r="H587" t="n">
-        <v>1</v>
-      </c>
-      <c r="I587" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J587" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21569,12 +20351,12 @@
         <v>-415434513.4321433</v>
       </c>
       <c r="H588" t="n">
-        <v>1</v>
-      </c>
-      <c r="I588" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J588" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21608,12 +20390,12 @@
         <v>-415480419.0517433</v>
       </c>
       <c r="H589" t="n">
-        <v>1</v>
-      </c>
-      <c r="I589" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J589" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21647,12 +20429,12 @@
         <v>-415432199.2273433</v>
       </c>
       <c r="H590" t="n">
-        <v>1</v>
-      </c>
-      <c r="I590" t="n">
-        <v>19.21</v>
-      </c>
-      <c r="J590" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21686,12 +20468,12 @@
         <v>-415432199.2273433</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J591" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21725,12 +20507,12 @@
         <v>-415432026.2641881</v>
       </c>
       <c r="H592" t="n">
-        <v>1</v>
-      </c>
-      <c r="I592" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J592" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21764,12 +20546,12 @@
         <v>-415640801.5964881</v>
       </c>
       <c r="H593" t="n">
-        <v>1</v>
-      </c>
-      <c r="I593" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="J593" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21803,12 +20585,12 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="J594" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21842,12 +20624,12 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H595" t="n">
-        <v>1</v>
-      </c>
-      <c r="I595" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="J595" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21881,12 +20663,12 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H596" t="n">
-        <v>1</v>
-      </c>
-      <c r="I596" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="J596" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21920,12 +20702,12 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H597" t="n">
-        <v>1</v>
-      </c>
-      <c r="I597" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="J597" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21959,12 +20741,12 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H598" t="n">
-        <v>1</v>
-      </c>
-      <c r="I598" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="J598" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21998,12 +20780,12 @@
         <v>-415638229.2885881</v>
       </c>
       <c r="H599" t="n">
-        <v>1</v>
-      </c>
-      <c r="I599" t="n">
-        <v>19.27</v>
-      </c>
-      <c r="J599" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22037,12 +20819,12 @@
         <v>-415638229.2885881</v>
       </c>
       <c r="H600" t="n">
-        <v>1</v>
-      </c>
-      <c r="I600" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J600" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22076,12 +20858,12 @@
         <v>-415951392.2869881</v>
       </c>
       <c r="H601" t="n">
-        <v>1</v>
-      </c>
-      <c r="I601" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J601" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22115,12 +20897,12 @@
         <v>-415360867.1824881</v>
       </c>
       <c r="H602" t="n">
-        <v>1</v>
-      </c>
-      <c r="I602" t="n">
-        <v>19.23</v>
-      </c>
-      <c r="J602" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22154,12 +20936,12 @@
         <v>-415380229.7682881</v>
       </c>
       <c r="H603" t="n">
-        <v>1</v>
-      </c>
-      <c r="I603" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J603" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22193,12 +20975,12 @@
         <v>-415379709.7682881</v>
       </c>
       <c r="H604" t="n">
-        <v>1</v>
-      </c>
-      <c r="I604" t="n">
-        <v>19.23</v>
-      </c>
-      <c r="J604" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22232,12 +21014,12 @@
         <v>-415385241.2333881</v>
       </c>
       <c r="H605" t="n">
-        <v>1</v>
-      </c>
-      <c r="I605" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J605" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22271,12 +21053,12 @@
         <v>-415385241.2333881</v>
       </c>
       <c r="H606" t="n">
-        <v>1</v>
-      </c>
-      <c r="I606" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="J606" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22310,12 +21092,12 @@
         <v>-415819275.268788</v>
       </c>
       <c r="H607" t="n">
-        <v>1</v>
-      </c>
-      <c r="I607" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="J607" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22349,12 +21131,12 @@
         <v>-415825534.109688</v>
       </c>
       <c r="H608" t="n">
-        <v>1</v>
-      </c>
-      <c r="I608" t="n">
-        <v>19.21</v>
-      </c>
-      <c r="J608" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22388,12 +21170,12 @@
         <v>-415824952.9728881</v>
       </c>
       <c r="H609" t="n">
-        <v>1</v>
-      </c>
-      <c r="I609" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="J609" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22427,12 +21209,12 @@
         <v>-415824952.9728881</v>
       </c>
       <c r="H610" t="n">
-        <v>1</v>
-      </c>
-      <c r="I610" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="J610" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22466,12 +21248,12 @@
         <v>-415479032.8981881</v>
       </c>
       <c r="H611" t="n">
-        <v>1</v>
-      </c>
-      <c r="I611" t="n">
-        <v>19.28</v>
-      </c>
-      <c r="J611" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22505,12 +21287,12 @@
         <v>-415503814.5881881</v>
       </c>
       <c r="H612" t="n">
-        <v>1</v>
-      </c>
-      <c r="I612" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J612" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22544,12 +21326,12 @@
         <v>-415574991.340188</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
-      </c>
-      <c r="I613" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J613" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22583,12 +21365,12 @@
         <v>-415463291.866188</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
-      </c>
-      <c r="I614" t="n">
-        <v>19.24</v>
-      </c>
-      <c r="J614" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22622,12 +21404,12 @@
         <v>-415336452.362888</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
-      </c>
-      <c r="I615" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J615" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22661,12 +21443,12 @@
         <v>-415540302.407088</v>
       </c>
       <c r="H616" t="n">
-        <v>1</v>
-      </c>
-      <c r="I616" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J616" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22705,7 +21487,9 @@
       <c r="I617" t="n">
         <v>19.29</v>
       </c>
-      <c r="J617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22744,7 +21528,9 @@
       <c r="I618" t="n">
         <v>19.3</v>
       </c>
-      <c r="J618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22778,12 +21564,12 @@
         <v>-415536613.138988</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
-      </c>
-      <c r="I619" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J619" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22817,12 +21603,12 @@
         <v>-415536613.138988</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
-      </c>
-      <c r="I620" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J620" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22856,12 +21642,12 @@
         <v>-415536613.138988</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
-      </c>
-      <c r="I621" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J621" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22900,7 +21686,9 @@
       <c r="I622" t="n">
         <v>19.29</v>
       </c>
-      <c r="J622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22937,7 +21725,9 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22974,7 +21764,9 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23011,7 +21803,9 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23048,7 +21842,9 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23085,7 +21881,9 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23122,7 +21920,9 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23159,7 +21959,9 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23196,7 +21998,9 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23233,7 +22037,9 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23270,7 +22076,9 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23307,7 +22115,9 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23344,7 +22154,9 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23381,7 +22193,9 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23418,7 +22232,9 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23455,7 +22271,9 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23489,12 +22307,12 @@
         <v>-414519820.901036</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
-      </c>
-      <c r="I638" t="n">
-        <v>19.43</v>
-      </c>
-      <c r="J638" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23528,12 +22346,12 @@
         <v>-414518720.901036</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
-      </c>
-      <c r="I639" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J639" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23570,7 +22388,9 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23607,7 +22427,9 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23644,7 +22466,9 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23681,7 +22505,9 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23718,7 +22544,9 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23755,7 +22583,9 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23789,12 +22619,12 @@
         <v>-415023394.545236</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
-      </c>
-      <c r="I646" t="n">
-        <v>19.37</v>
-      </c>
-      <c r="J646" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23828,12 +22658,12 @@
         <v>-415119343.6938295</v>
       </c>
       <c r="H647" t="n">
-        <v>1</v>
-      </c>
-      <c r="I647" t="n">
-        <v>19.43</v>
-      </c>
-      <c r="J647" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23867,12 +22697,12 @@
         <v>-415336417.2910769</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
-      </c>
-      <c r="I648" t="n">
-        <v>19.42</v>
-      </c>
-      <c r="J648" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23906,12 +22736,12 @@
         <v>-415300244.9562769</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="J649" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23945,12 +22775,12 @@
         <v>-415321447.2782583</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>19.39</v>
-      </c>
-      <c r="J650" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23984,12 +22814,12 @@
         <v>-415335057.8462583</v>
       </c>
       <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>19.38</v>
-      </c>
-      <c r="J651" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24023,12 +22853,12 @@
         <v>-415335057.8462583</v>
       </c>
       <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="J652" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24062,12 +22892,12 @@
         <v>-415335057.8462583</v>
       </c>
       <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="J653" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24101,12 +22931,12 @@
         <v>-415335057.8462583</v>
       </c>
       <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="J654" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24140,12 +22970,12 @@
         <v>-415335027.8462583</v>
       </c>
       <c r="H655" t="n">
-        <v>1</v>
-      </c>
-      <c r="I655" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="J655" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24179,12 +23009,12 @@
         <v>-415335027.8462583</v>
       </c>
       <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J656" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24218,12 +23048,12 @@
         <v>-415335027.8462583</v>
       </c>
       <c r="H657" t="n">
-        <v>1</v>
-      </c>
-      <c r="I657" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J657" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24257,12 +23087,12 @@
         <v>-415335027.8462583</v>
       </c>
       <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J658" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24296,12 +23126,12 @@
         <v>-415349231.6988583</v>
       </c>
       <c r="H659" t="n">
-        <v>1</v>
-      </c>
-      <c r="I659" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J659" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24335,12 +23165,12 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H660" t="n">
-        <v>1</v>
-      </c>
-      <c r="I660" t="n">
-        <v>19.32</v>
-      </c>
-      <c r="J660" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24374,12 +23204,12 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J661" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24413,12 +23243,12 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J662" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24452,12 +23282,12 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H663" t="n">
-        <v>1</v>
-      </c>
-      <c r="I663" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J663" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24491,12 +23321,12 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H664" t="n">
-        <v>1</v>
-      </c>
-      <c r="I664" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J664" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24530,12 +23360,12 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H665" t="n">
-        <v>1</v>
-      </c>
-      <c r="I665" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J665" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24569,12 +23399,12 @@
         <v>-415190719.1550583</v>
       </c>
       <c r="H666" t="n">
-        <v>1</v>
-      </c>
-      <c r="I666" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J666" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24608,12 +23438,12 @@
         <v>-415189122.2110583</v>
       </c>
       <c r="H667" t="n">
-        <v>1</v>
-      </c>
-      <c r="I667" t="n">
-        <v>19.31</v>
-      </c>
-      <c r="J667" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24647,12 +23477,12 @@
         <v>-415348604.6867583</v>
       </c>
       <c r="H668" t="n">
-        <v>1</v>
-      </c>
-      <c r="I668" t="n">
-        <v>19.34</v>
-      </c>
-      <c r="J668" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24686,12 +23516,12 @@
         <v>-415350261.7763584</v>
       </c>
       <c r="H669" t="n">
-        <v>1</v>
-      </c>
-      <c r="I669" t="n">
-        <v>19.31</v>
-      </c>
-      <c r="J669" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24725,12 +23555,12 @@
         <v>-415350261.7763584</v>
       </c>
       <c r="H670" t="n">
-        <v>1</v>
-      </c>
-      <c r="I670" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J670" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24764,12 +23594,12 @@
         <v>-415350217.3092583</v>
       </c>
       <c r="H671" t="n">
-        <v>1</v>
-      </c>
-      <c r="I671" t="n">
-        <v>19.25</v>
-      </c>
-      <c r="J671" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24803,12 +23633,12 @@
         <v>-415350217.3092583</v>
       </c>
       <c r="H672" t="n">
-        <v>1</v>
-      </c>
-      <c r="I672" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J672" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24842,12 +23672,12 @@
         <v>-415759379.6726583</v>
       </c>
       <c r="H673" t="n">
-        <v>1</v>
-      </c>
-      <c r="I673" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J673" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24881,12 +23711,12 @@
         <v>-415362313.9481583</v>
       </c>
       <c r="H674" t="n">
-        <v>1</v>
-      </c>
-      <c r="I674" t="n">
-        <v>19.23</v>
-      </c>
-      <c r="J674" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24920,12 +23750,12 @@
         <v>-415353794.8618583</v>
       </c>
       <c r="H675" t="n">
-        <v>1</v>
-      </c>
-      <c r="I675" t="n">
-        <v>19.32</v>
-      </c>
-      <c r="J675" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24959,12 +23789,12 @@
         <v>-415871059.9080583</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J676" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24998,12 +23828,12 @@
         <v>-415320812.0820583</v>
       </c>
       <c r="H677" t="n">
-        <v>1</v>
-      </c>
-      <c r="I677" t="n">
-        <v>19.34</v>
-      </c>
-      <c r="J677" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25037,12 +23867,12 @@
         <v>-415330865.9483583</v>
       </c>
       <c r="H678" t="n">
-        <v>1</v>
-      </c>
-      <c r="I678" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J678" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25076,12 +23906,12 @@
         <v>-415083396.035454</v>
       </c>
       <c r="H679" t="n">
-        <v>1</v>
-      </c>
-      <c r="I679" t="n">
-        <v>19.34</v>
-      </c>
-      <c r="J679" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25115,12 +23945,12 @@
         <v>-415087599.251154</v>
       </c>
       <c r="H680" t="n">
-        <v>1</v>
-      </c>
-      <c r="I680" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="J680" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25154,12 +23984,12 @@
         <v>-415087599.251154</v>
       </c>
       <c r="H681" t="n">
-        <v>1</v>
-      </c>
-      <c r="I681" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="J681" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25193,12 +24023,12 @@
         <v>-414682415.4137583</v>
       </c>
       <c r="H682" t="n">
-        <v>1</v>
-      </c>
-      <c r="I682" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="J682" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25232,12 +24062,12 @@
         <v>-415137712.8148583</v>
       </c>
       <c r="H683" t="n">
-        <v>1</v>
-      </c>
-      <c r="I683" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J683" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25271,12 +24101,12 @@
         <v>-415078674.5814583</v>
       </c>
       <c r="H684" t="n">
-        <v>1</v>
-      </c>
-      <c r="I684" t="n">
-        <v>19.36</v>
-      </c>
-      <c r="J684" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25310,12 +24140,12 @@
         <v>-415078674.5814583</v>
       </c>
       <c r="H685" t="n">
-        <v>1</v>
-      </c>
-      <c r="I685" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J685" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25349,12 +24179,12 @@
         <v>-413858544.9159583</v>
       </c>
       <c r="H686" t="n">
-        <v>1</v>
-      </c>
-      <c r="I686" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="J686" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25391,7 +24221,9 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="inlineStr"/>
+      <c r="J687" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25428,7 +24260,9 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="inlineStr"/>
+      <c r="J688" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25465,7 +24299,9 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="inlineStr"/>
+      <c r="J689" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25502,7 +24338,9 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="inlineStr"/>
+      <c r="J690" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25539,7 +24377,9 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="inlineStr"/>
+      <c r="J691" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25576,7 +24416,9 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="inlineStr"/>
+      <c r="J692" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25613,7 +24455,9 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="inlineStr"/>
+      <c r="J693" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25650,7 +24494,9 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="inlineStr"/>
+      <c r="J694" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25687,7 +24533,9 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="inlineStr"/>
+      <c r="J695" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K695" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25724,7 +24572,9 @@
         <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="inlineStr"/>
+      <c r="J696" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K696" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25761,7 +24611,9 @@
         <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+      <c r="J697" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K697" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25798,7 +24650,9 @@
         <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
+      <c r="J698" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K698" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25835,7 +24689,9 @@
         <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+      <c r="J699" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K699" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25872,7 +24728,9 @@
         <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
+      <c r="J700" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K700" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25909,7 +24767,9 @@
         <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
+      <c r="J701" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K701" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25946,7 +24806,9 @@
         <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+      <c r="J702" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K702" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25983,7 +24845,9 @@
         <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
+      <c r="J703" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K703" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26020,7 +24884,9 @@
         <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
+      <c r="J704" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K704" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26057,7 +24923,9 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+      <c r="J705" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K705" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26094,7 +24962,9 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
+      <c r="J706" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K706" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26131,7 +25001,9 @@
         <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
+      <c r="J707" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K707" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26168,7 +25040,9 @@
         <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+      <c r="J708" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K708" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26205,7 +25079,9 @@
         <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
+      <c r="J709" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K709" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26242,7 +25118,9 @@
         <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
+      <c r="J710" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K710" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26279,7 +25157,9 @@
         <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
+      <c r="J711" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K711" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26316,7 +25196,9 @@
         <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
+      <c r="J712" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K712" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26353,7 +25235,9 @@
         <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
+      <c r="J713" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K713" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26390,7 +25274,9 @@
         <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
+      <c r="J714" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K714" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26427,7 +25313,9 @@
         <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
+      <c r="J715" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K715" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26464,7 +25352,9 @@
         <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
+      <c r="J716" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K716" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26501,7 +25391,9 @@
         <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
+      <c r="J717" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K717" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26538,7 +25430,9 @@
         <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
+      <c r="J718" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K718" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26575,7 +25469,9 @@
         <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
+      <c r="J719" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K719" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26612,7 +25508,9 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
+      <c r="J720" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K720" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26649,7 +25547,9 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
+      <c r="J721" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K721" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26686,7 +25586,9 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
+      <c r="J722" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K722" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26723,7 +25625,9 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
+      <c r="J723" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K723" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26760,7 +25664,9 @@
         <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
+      <c r="J724" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K724" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26797,7 +25703,9 @@
         <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
+      <c r="J725" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K725" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26834,7 +25742,9 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
+      <c r="J726" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K726" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26871,7 +25781,9 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26908,7 +25820,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26945,7 +25859,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -26982,7 +25898,9 @@
         <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27019,7 +25937,9 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27056,7 +25976,9 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27093,7 +26015,9 @@
         <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27130,7 +26054,9 @@
         <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27167,7 +26093,9 @@
         <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27204,7 +26132,9 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27241,7 +26171,9 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27278,7 +26210,9 @@
         <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+      <c r="J738" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27315,7 +26249,9 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27352,7 +26288,9 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27389,7 +26327,9 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27426,7 +26366,9 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+      <c r="J742" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27463,7 +26405,9 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+      <c r="J743" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27500,7 +26444,9 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K744" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27537,7 +26483,9 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K745" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27574,7 +26522,9 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K746" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27611,7 +26561,9 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K747" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27645,16 +26597,20 @@
         <v>-410315162.7442614</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>19.26</v>
+      </c>
       <c r="K748" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L748" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L748" t="n">
+        <v>1</v>
+      </c>
       <c r="M748" t="inlineStr"/>
     </row>
     <row r="749">
@@ -27680,11 +26636,17 @@
         <v>-410315162.7442614</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -27713,11 +26675,17 @@
         <v>-410315162.7442614</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -27746,11 +26714,17 @@
         <v>-410315072.7341194</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -27779,11 +26753,17 @@
         <v>-410497809.8720194</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -27812,11 +26792,17 @@
         <v>-410496705.1941194</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -27845,11 +26831,17 @@
         <v>-410496705.1941194</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -27878,11 +26870,17 @@
         <v>-410496705.1941194</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -27911,11 +26909,17 @@
         <v>-410595056.0767194</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -27944,11 +26948,17 @@
         <v>-410663291.4191194</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -27980,8 +26990,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -28013,8 +27029,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -28046,8 +27068,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -28079,8 +27107,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -28112,8 +27146,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -28145,8 +27185,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -28178,8 +27224,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -28211,8 +27263,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -28244,8 +27302,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -28277,8 +27341,14 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -28310,8 +27380,14 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -28343,14 +27419,20 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
       <c r="M769" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-22 BackTest TRX.xlsx
+++ b/BackTest/2020-01-22 BackTest TRX.xlsx
@@ -10912,7 +10912,7 @@
         <v>5475347.07249362</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-420027569.5255064</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-419878917.8295064</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-419687093.3625853</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-419687093.3625853</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-419687093.3625853</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-419690295.8328853</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-419660481.1996853</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-419660481.1996853</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>-419906146.8422853</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>-419854706.5270854</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-419854914.6351796</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-419854914.6351796</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-419770403.0684797</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-419803199.7833797</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12727,11 +12727,17 @@
         <v>-418810993.5127797</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>19.25</v>
+      </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +12766,17 @@
         <v>-418810993.5127797</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>19.25</v>
+      </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,11 +12805,17 @@
         <v>-417896258.1047797</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>19.25</v>
+      </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="inlineStr"/>
+      <c r="K376" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L376" t="n">
         <v>1</v>
       </c>
@@ -12826,11 +12844,17 @@
         <v>-417806177.3215796</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>19.3</v>
+      </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,11 +12883,17 @@
         <v>-417806177.3215796</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>19.31</v>
+      </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12892,11 +12922,17 @@
         <v>-417806177.3215796</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>19.31</v>
+      </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="inlineStr"/>
+      <c r="K379" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12925,11 +12961,17 @@
         <v>-417393628.9550796</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>19.31</v>
+      </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="inlineStr"/>
+      <c r="K380" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L380" t="n">
         <v>1</v>
       </c>
@@ -12958,11 +13000,17 @@
         <v>-417824967.9303809</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>19.35</v>
+      </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -12991,11 +13039,17 @@
         <v>-417824967.9303809</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>19.32</v>
+      </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="inlineStr"/>
+      <c r="K382" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13024,11 +13078,17 @@
         <v>-417926601.8057809</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>19.32</v>
+      </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="inlineStr"/>
+      <c r="K383" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -13057,11 +13117,17 @@
         <v>-417930449.4375809</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>19.31</v>
+      </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13090,11 +13156,17 @@
         <v>-417930385.4452809</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>19.28</v>
+      </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="inlineStr"/>
+      <c r="K385" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L385" t="n">
         <v>1</v>
       </c>
@@ -13123,11 +13195,17 @@
         <v>-418794126.9473809</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
-      </c>
-      <c r="I386" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I386" t="n">
+        <v>19.3</v>
+      </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="inlineStr"/>
+      <c r="K386" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L386" t="n">
         <v>1</v>
       </c>
@@ -13156,11 +13234,17 @@
         <v>-418794126.9473809</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
-      </c>
-      <c r="I387" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I387" t="n">
+        <v>19.28</v>
+      </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="inlineStr"/>
+      <c r="K387" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -13189,11 +13273,17 @@
         <v>-418715254.7866809</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
-      </c>
-      <c r="I388" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I388" t="n">
+        <v>19.28</v>
+      </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="inlineStr"/>
+      <c r="K388" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -13222,11 +13312,17 @@
         <v>-418723956.9827809</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
-      </c>
-      <c r="I389" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I389" t="n">
+        <v>19.32</v>
+      </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="inlineStr"/>
+      <c r="K389" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -13255,11 +13351,17 @@
         <v>-418723956.9827809</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>19.25</v>
+      </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="inlineStr"/>
+      <c r="K390" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -13288,11 +13390,17 @@
         <v>-418723956.9827809</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>19.25</v>
+      </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13321,11 +13429,17 @@
         <v>-418722289.7088809</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
-      </c>
-      <c r="I392" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I392" t="n">
+        <v>19.25</v>
+      </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13354,11 +13468,17 @@
         <v>-418722289.7088809</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>19.3</v>
+      </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="inlineStr"/>
+      <c r="K393" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -13387,11 +13507,17 @@
         <v>-418896962.7088809</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
-      </c>
-      <c r="I394" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I394" t="n">
+        <v>19.3</v>
+      </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13420,11 +13546,17 @@
         <v>-418896962.7088809</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
-      </c>
-      <c r="I395" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I395" t="n">
+        <v>19.27</v>
+      </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13453,11 +13585,17 @@
         <v>-418891962.7088809</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>19.27</v>
+      </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="inlineStr"/>
+      <c r="K396" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -13486,11 +13624,17 @@
         <v>-418891962.7088809</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
-      </c>
-      <c r="I397" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I397" t="n">
+        <v>19.3</v>
+      </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="inlineStr"/>
+      <c r="K397" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -13519,11 +13663,17 @@
         <v>-418991106.2431809</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
-      </c>
-      <c r="I398" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I398" t="n">
+        <v>19.3</v>
+      </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="inlineStr"/>
+      <c r="K398" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -13552,11 +13702,17 @@
         <v>-418866095.7191809</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
-      </c>
-      <c r="I399" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I399" t="n">
+        <v>19.26</v>
+      </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="inlineStr"/>
+      <c r="K399" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -13585,11 +13741,17 @@
         <v>-418866095.7191809</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
-      </c>
-      <c r="I400" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I400" t="n">
+        <v>19.27</v>
+      </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="inlineStr"/>
+      <c r="K400" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -13618,11 +13780,17 @@
         <v>-419075295.579581</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>19.27</v>
+      </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="inlineStr"/>
+      <c r="K401" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -13651,11 +13819,17 @@
         <v>-419169656.1085809</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>19.25</v>
+      </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="inlineStr"/>
+      <c r="K402" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -13684,11 +13858,17 @@
         <v>-419169656.1085809</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>19.24</v>
+      </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="inlineStr"/>
+      <c r="K403" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -13717,11 +13897,17 @@
         <v>-419169656.1085809</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>19.24</v>
+      </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="inlineStr"/>
+      <c r="K404" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L404" t="n">
         <v>1</v>
       </c>
@@ -13750,11 +13936,17 @@
         <v>-419118042.962081</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>19.24</v>
+      </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="inlineStr"/>
+      <c r="K405" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -13783,11 +13975,17 @@
         <v>-419118042.962081</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
-      </c>
-      <c r="I406" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I406" t="n">
+        <v>19.28</v>
+      </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="inlineStr"/>
+      <c r="K406" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13816,11 +14014,17 @@
         <v>-419173454.0969809</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
-      </c>
-      <c r="I407" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I407" t="n">
+        <v>19.28</v>
+      </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="inlineStr"/>
+      <c r="K407" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -13849,11 +14053,17 @@
         <v>-419417476.638081</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
-      </c>
-      <c r="I408" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I408" t="n">
+        <v>19.26</v>
+      </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="inlineStr"/>
+      <c r="K408" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -13882,11 +14092,17 @@
         <v>-419438026.4052809</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
-      </c>
-      <c r="I409" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I409" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="inlineStr"/>
+      <c r="K409" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -13915,11 +14131,17 @@
         <v>-419438026.4052809</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
-      </c>
-      <c r="I410" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I410" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="inlineStr"/>
+      <c r="K410" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -13948,11 +14170,17 @@
         <v>-419438026.4052809</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
-      </c>
-      <c r="I411" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I411" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="inlineStr"/>
+      <c r="K411" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -13981,11 +14209,17 @@
         <v>-419596618.858681</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
-      </c>
-      <c r="I412" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I412" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="inlineStr"/>
+      <c r="K412" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -14014,11 +14248,17 @@
         <v>-419596618.858681</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>19.18</v>
+      </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="inlineStr"/>
+      <c r="K413" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -14047,11 +14287,17 @@
         <v>-419600779.3150809</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
-      </c>
-      <c r="I414" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I414" t="n">
+        <v>19.18</v>
+      </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="inlineStr"/>
+      <c r="K414" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -14080,11 +14326,17 @@
         <v>-418707035.246181</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
-      </c>
-      <c r="I415" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I415" t="n">
+        <v>19.17</v>
+      </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="inlineStr"/>
+      <c r="K415" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -14113,11 +14365,17 @@
         <v>-418679476.791581</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
-      </c>
-      <c r="I416" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I416" t="n">
+        <v>19.21</v>
+      </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="inlineStr"/>
+      <c r="K416" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -14146,11 +14404,17 @@
         <v>-418679476.791581</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
-      </c>
-      <c r="I417" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I417" t="n">
+        <v>19.23</v>
+      </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="inlineStr"/>
+      <c r="K417" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -14179,11 +14443,17 @@
         <v>-418679637.300481</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
-      </c>
-      <c r="I418" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I418" t="n">
+        <v>19.23</v>
+      </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="inlineStr"/>
+      <c r="K418" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -14212,11 +14482,17 @@
         <v>-418678185.3541809</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
-      </c>
-      <c r="I419" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I419" t="n">
+        <v>19.16</v>
+      </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="inlineStr"/>
+      <c r="K419" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -14245,11 +14521,17 @@
         <v>-418683185.3541809</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
-      </c>
-      <c r="I420" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I420" t="n">
+        <v>19.23</v>
+      </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="inlineStr"/>
+      <c r="K420" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -14278,11 +14560,17 @@
         <v>-418758477.8759809</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="inlineStr"/>
+      <c r="K421" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -14311,11 +14599,17 @@
         <v>-418933792.0816809</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>19.17</v>
+      </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +14638,17 @@
         <v>-418933792.0816809</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>19.16</v>
+      </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +14677,17 @@
         <v>-418992616.5959809</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>19.16</v>
+      </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,11 +14716,17 @@
         <v>-418992616.5959809</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>19.14</v>
+      </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="inlineStr"/>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14443,11 +14755,17 @@
         <v>-418745397.9253809</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>19.14</v>
+      </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="inlineStr"/>
+      <c r="K426" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14476,11 +14794,17 @@
         <v>-418745367.9253809</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>19.15</v>
+      </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="inlineStr"/>
+      <c r="K427" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14509,11 +14833,17 @@
         <v>-418859301.1197809</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="inlineStr"/>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14550,7 +14880,7 @@
       <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L429" t="n">
@@ -14581,9 +14911,11 @@
         <v>-418752428.9568316</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
-      </c>
-      <c r="I430" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I430" t="n">
+        <v>19.15</v>
+      </c>
       <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
@@ -14657,9 +14989,11 @@
         <v>-418773747.3530316</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
-      </c>
-      <c r="I432" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I432" t="n">
+        <v>19.17</v>
+      </c>
       <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
@@ -14733,9 +15067,11 @@
         <v>-417837388.6206316</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
-      </c>
-      <c r="I434" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I434" t="n">
+        <v>19.13</v>
+      </c>
       <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
@@ -14770,9 +15106,11 @@
         <v>-417994238.6206316</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -14807,9 +15145,11 @@
         <v>-417994134.4540316</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>19.13</v>
+      </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -14883,9 +15223,11 @@
         <v>-418033528.4982316</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>19.12</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -14920,9 +15262,11 @@
         <v>-418036086.5327316</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>19.18</v>
+      </c>
       <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
@@ -15698,9 +16042,11 @@
         <v>-417596813.1373934</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>19.24</v>
+      </c>
       <c r="J459" t="inlineStr"/>
       <c r="K459" t="inlineStr">
         <is>
@@ -15735,9 +16081,11 @@
         <v>-417965311.9667934</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>19.23</v>
+      </c>
       <c r="J460" t="inlineStr"/>
       <c r="K460" t="inlineStr">
         <is>
@@ -15772,9 +16120,11 @@
         <v>-417916911.5430934</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>19.16</v>
+      </c>
       <c r="J461" t="inlineStr"/>
       <c r="K461" t="inlineStr">
         <is>
@@ -15809,9 +16159,11 @@
         <v>-417652818.9808934</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>19.23</v>
+      </c>
       <c r="J462" t="inlineStr"/>
       <c r="K462" t="inlineStr">
         <is>
@@ -15846,9 +16198,11 @@
         <v>-417676386.6136934</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>19.25</v>
+      </c>
       <c r="J463" t="inlineStr"/>
       <c r="K463" t="inlineStr">
         <is>
@@ -15883,9 +16237,11 @@
         <v>-417703051.9564934</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>19.24</v>
+      </c>
       <c r="J464" t="inlineStr"/>
       <c r="K464" t="inlineStr">
         <is>
@@ -15920,9 +16276,11 @@
         <v>-417719084.6064934</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J465" t="inlineStr"/>
       <c r="K465" t="inlineStr">
         <is>
@@ -15957,9 +16315,11 @@
         <v>-417719054.6064934</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J466" t="inlineStr"/>
       <c r="K466" t="inlineStr">
         <is>
@@ -15994,9 +16354,11 @@
         <v>-417719654.6064934</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J467" t="inlineStr"/>
       <c r="K467" t="inlineStr">
         <is>
@@ -16031,9 +16393,11 @@
         <v>-417709654.6064934</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>19.15</v>
+      </c>
       <c r="J468" t="inlineStr"/>
       <c r="K468" t="inlineStr">
         <is>
@@ -16068,9 +16432,11 @@
         <v>-417658209.5014933</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J469" t="inlineStr"/>
       <c r="K469" t="inlineStr">
         <is>
@@ -16105,9 +16471,11 @@
         <v>-417660689.8079934</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J470" t="inlineStr"/>
       <c r="K470" t="inlineStr">
         <is>
@@ -16142,9 +16510,11 @@
         <v>-417660689.8079934</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J471" t="inlineStr"/>
       <c r="K471" t="inlineStr">
         <is>
@@ -16179,9 +16549,11 @@
         <v>-417660689.8079934</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J472" t="inlineStr"/>
       <c r="K472" t="inlineStr">
         <is>
@@ -16216,9 +16588,11 @@
         <v>-417660689.8079934</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J473" t="inlineStr"/>
       <c r="K473" t="inlineStr">
         <is>
@@ -16253,9 +16627,11 @@
         <v>-417567234.7274933</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J474" t="inlineStr"/>
       <c r="K474" t="inlineStr">
         <is>
@@ -16290,9 +16666,11 @@
         <v>-417603329.2745934</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>19.21</v>
+      </c>
       <c r="J475" t="inlineStr"/>
       <c r="K475" t="inlineStr">
         <is>
@@ -16327,9 +16705,11 @@
         <v>-417603329.2745934</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J476" t="inlineStr"/>
       <c r="K476" t="inlineStr">
         <is>
@@ -16364,9 +16744,11 @@
         <v>-417603329.2745934</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J477" t="inlineStr"/>
       <c r="K477" t="inlineStr">
         <is>
@@ -16401,9 +16783,11 @@
         <v>-417534530.0519934</v>
       </c>
       <c r="H478" t="n">
-        <v>0</v>
-      </c>
-      <c r="I478" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I478" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J478" t="inlineStr"/>
       <c r="K478" t="inlineStr">
         <is>
@@ -16438,9 +16822,11 @@
         <v>-417538129.7603934</v>
       </c>
       <c r="H479" t="n">
-        <v>0</v>
-      </c>
-      <c r="I479" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I479" t="n">
+        <v>19.25</v>
+      </c>
       <c r="J479" t="inlineStr"/>
       <c r="K479" t="inlineStr">
         <is>
@@ -16475,9 +16861,11 @@
         <v>-416802398.2156934</v>
       </c>
       <c r="H480" t="n">
-        <v>0</v>
-      </c>
-      <c r="I480" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I480" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J480" t="inlineStr"/>
       <c r="K480" t="inlineStr">
         <is>
@@ -16512,9 +16900,11 @@
         <v>-416825140.4005933</v>
       </c>
       <c r="H481" t="n">
-        <v>0</v>
-      </c>
-      <c r="I481" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I481" t="n">
+        <v>19.27</v>
+      </c>
       <c r="J481" t="inlineStr"/>
       <c r="K481" t="inlineStr">
         <is>
@@ -16549,9 +16939,11 @@
         <v>-416785140.4005933</v>
       </c>
       <c r="H482" t="n">
-        <v>0</v>
-      </c>
-      <c r="I482" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I482" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J482" t="inlineStr"/>
       <c r="K482" t="inlineStr">
         <is>
@@ -16586,16 +16978,20 @@
         <v>-416785140.4005933</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
-      </c>
-      <c r="I483" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I483" t="n">
+        <v>19.29</v>
+      </c>
       <c r="J483" t="inlineStr"/>
       <c r="K483" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L483" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L483" t="n">
+        <v>1</v>
+      </c>
       <c r="M483" t="inlineStr"/>
     </row>
     <row r="484">
@@ -16621,11 +17017,17 @@
         <v>-416785140.4005933</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
-      </c>
-      <c r="I484" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I484" t="n">
+        <v>19.29</v>
+      </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16654,11 +17056,17 @@
         <v>-416818815.2002934</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
-      </c>
-      <c r="I485" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I485" t="n">
+        <v>19.29</v>
+      </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16687,11 +17095,17 @@
         <v>-416818815.2002934</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
-      </c>
-      <c r="I486" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I486" t="n">
+        <v>19.26</v>
+      </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16720,11 +17134,17 @@
         <v>-416715959.8094934</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
-      </c>
-      <c r="I487" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I487" t="n">
+        <v>19.26</v>
+      </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16753,11 +17173,17 @@
         <v>-416997512.7714934</v>
       </c>
       <c r="H488" t="n">
-        <v>2</v>
-      </c>
-      <c r="I488" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I488" t="n">
+        <v>19.29</v>
+      </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16786,11 +17212,17 @@
         <v>-416996864.2336934</v>
       </c>
       <c r="H489" t="n">
-        <v>0</v>
-      </c>
-      <c r="I489" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I489" t="n">
+        <v>19.23</v>
+      </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16819,11 +17251,17 @@
         <v>-417054132.8902934</v>
       </c>
       <c r="H490" t="n">
-        <v>2</v>
-      </c>
-      <c r="I490" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I490" t="n">
+        <v>19.29</v>
+      </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16852,11 +17290,17 @@
         <v>-417054132.8902934</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
-      </c>
-      <c r="I491" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I491" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16885,11 +17329,17 @@
         <v>-417053830.6308933</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
-      </c>
-      <c r="I492" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I492" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16918,11 +17368,17 @@
         <v>-417023150.6921933</v>
       </c>
       <c r="H493" t="n">
-        <v>0</v>
-      </c>
-      <c r="I493" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I493" t="n">
+        <v>19.24</v>
+      </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16951,11 +17407,17 @@
         <v>-417025904.3807933</v>
       </c>
       <c r="H494" t="n">
-        <v>0</v>
-      </c>
-      <c r="I494" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I494" t="n">
+        <v>19.26</v>
+      </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16984,11 +17446,17 @@
         <v>-417024704.3807933</v>
       </c>
       <c r="H495" t="n">
-        <v>0</v>
-      </c>
-      <c r="I495" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I495" t="n">
+        <v>19.21</v>
+      </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17017,11 +17485,17 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
-      </c>
-      <c r="I496" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I496" t="n">
+        <v>19.26</v>
+      </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17050,11 +17524,17 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H497" t="n">
-        <v>0</v>
-      </c>
-      <c r="I497" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I497" t="n">
+        <v>19.21</v>
+      </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17083,11 +17563,17 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H498" t="n">
-        <v>0</v>
-      </c>
-      <c r="I498" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I498" t="n">
+        <v>19.21</v>
+      </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17116,11 +17602,17 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H499" t="n">
-        <v>0</v>
-      </c>
-      <c r="I499" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I499" t="n">
+        <v>19.21</v>
+      </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17149,11 +17641,17 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H500" t="n">
-        <v>0</v>
-      </c>
-      <c r="I500" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I500" t="n">
+        <v>19.21</v>
+      </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17182,11 +17680,17 @@
         <v>-417027734.9621933</v>
       </c>
       <c r="H501" t="n">
-        <v>0</v>
-      </c>
-      <c r="I501" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I501" t="n">
+        <v>19.21</v>
+      </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17215,11 +17719,17 @@
         <v>-416670896.2229666</v>
       </c>
       <c r="H502" t="n">
-        <v>0</v>
-      </c>
-      <c r="I502" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I502" t="n">
+        <v>19.21</v>
+      </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17248,11 +17758,17 @@
         <v>-416671114.1629665</v>
       </c>
       <c r="H503" t="n">
-        <v>0</v>
-      </c>
-      <c r="I503" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I503" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17281,11 +17797,17 @@
         <v>-416671114.1629665</v>
       </c>
       <c r="H504" t="n">
-        <v>0</v>
-      </c>
-      <c r="I504" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I504" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17314,11 +17836,17 @@
         <v>-416671114.1629665</v>
       </c>
       <c r="H505" t="n">
-        <v>0</v>
-      </c>
-      <c r="I505" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I505" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17347,11 +17875,17 @@
         <v>-416298842.7106665</v>
       </c>
       <c r="H506" t="n">
-        <v>0</v>
-      </c>
-      <c r="I506" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I506" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17380,11 +17914,17 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H507" t="n">
-        <v>0</v>
-      </c>
-      <c r="I507" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I507" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17413,11 +17953,17 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
-      </c>
-      <c r="I508" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I508" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17446,11 +17992,17 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H509" t="n">
-        <v>0</v>
-      </c>
-      <c r="I509" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I509" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17479,11 +18031,17 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H510" t="n">
-        <v>0</v>
-      </c>
-      <c r="I510" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I510" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17512,11 +18070,17 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H511" t="n">
-        <v>0</v>
-      </c>
-      <c r="I511" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I511" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17545,11 +18109,17 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H512" t="n">
-        <v>0</v>
-      </c>
-      <c r="I512" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I512" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17578,11 +18148,17 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H513" t="n">
-        <v>0</v>
-      </c>
-      <c r="I513" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I513" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17611,11 +18187,17 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
-      </c>
-      <c r="I514" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I514" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17644,11 +18226,17 @@
         <v>-416652719.2803665</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
-      </c>
-      <c r="I515" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I515" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17677,11 +18265,17 @@
         <v>-416690219.2803665</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
-      </c>
-      <c r="I516" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I516" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17710,11 +18304,17 @@
         <v>-416604288.5176665</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
-      </c>
-      <c r="I517" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I517" t="n">
+        <v>19.16</v>
+      </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17743,11 +18343,17 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
-      </c>
-      <c r="I518" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I518" t="n">
+        <v>19.21</v>
+      </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17776,11 +18382,17 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
-      </c>
-      <c r="I519" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I519" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17809,11 +18421,17 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H520" t="n">
-        <v>2</v>
-      </c>
-      <c r="I520" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I520" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17842,11 +18460,17 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H521" t="n">
-        <v>0</v>
-      </c>
-      <c r="I521" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I521" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17875,11 +18499,17 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
-      </c>
-      <c r="I522" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I522" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17908,11 +18538,17 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
-      </c>
-      <c r="I523" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I523" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17941,11 +18577,17 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
-      </c>
-      <c r="I524" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I524" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17974,11 +18616,17 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H525" t="n">
-        <v>2</v>
-      </c>
-      <c r="I525" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I525" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18007,11 +18655,17 @@
         <v>-416491248.3421665</v>
       </c>
       <c r="H526" t="n">
-        <v>2</v>
-      </c>
-      <c r="I526" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I526" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18040,11 +18694,17 @@
         <v>-416691248.3421665</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
-      </c>
-      <c r="I527" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I527" t="n">
+        <v>19.22</v>
+      </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18073,11 +18733,17 @@
         <v>-417067574.0079665</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
-      </c>
-      <c r="I528" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I528" t="n">
+        <v>19.19</v>
+      </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18106,11 +18772,17 @@
         <v>-417067086.3879665</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
-      </c>
-      <c r="I529" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I529" t="n">
+        <v>19.16</v>
+      </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18139,11 +18811,17 @@
         <v>-417067086.3879665</v>
       </c>
       <c r="H530" t="n">
-        <v>0</v>
-      </c>
-      <c r="I530" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I530" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18172,11 +18850,17 @@
         <v>-417067256.5879665</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
-      </c>
-      <c r="I531" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I531" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18205,11 +18889,17 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H532" t="n">
-        <v>0</v>
-      </c>
-      <c r="I532" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I532" t="n">
+        <v>19.19</v>
+      </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18238,11 +18928,17 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H533" t="n">
-        <v>0</v>
-      </c>
-      <c r="I533" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I533" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18271,11 +18967,17 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H534" t="n">
-        <v>0</v>
-      </c>
-      <c r="I534" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I534" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18304,11 +19006,17 @@
         <v>-416503526.9172665</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
-      </c>
-      <c r="I535" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I535" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18337,11 +19045,17 @@
         <v>-416402370.0021665</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
-      </c>
-      <c r="I536" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I536" t="n">
+        <v>19.2</v>
+      </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18370,11 +19084,17 @@
         <v>-415810873.9685665</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
-      </c>
-      <c r="I537" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I537" t="n">
+        <v>19.23</v>
+      </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18408,10 +19128,12 @@
       <c r="I538" t="n">
         <v>19.26</v>
       </c>
-      <c r="J538" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18440,15 +19162,15 @@
         <v>-415881865.3212665</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
-      </c>
-      <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
+        <v>1</v>
+      </c>
+      <c r="I539" t="n">
         <v>19.26</v>
       </c>
+      <c r="J539" t="inlineStr"/>
       <c r="K539" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L539" t="n">
@@ -18484,12 +19206,10 @@
       <c r="I540" t="n">
         <v>19.25</v>
       </c>
-      <c r="J540" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J540" t="inlineStr"/>
       <c r="K540" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L540" t="n">
@@ -18525,10 +19245,12 @@
       <c r="I541" t="n">
         <v>19.18</v>
       </c>
-      <c r="J541" t="n">
-        <v>19.18</v>
-      </c>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18557,15 +19279,15 @@
         <v>-415855912.3490665</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
-      </c>
-      <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>19.18</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I542" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J542" t="inlineStr"/>
       <c r="K542" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L542" t="n">
@@ -18596,15 +19318,15 @@
         <v>-415855912.3490665</v>
       </c>
       <c r="H543" t="n">
-        <v>0</v>
-      </c>
-      <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>19.18</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I543" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="J543" t="inlineStr"/>
       <c r="K543" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L543" t="n">
@@ -18640,10 +19362,12 @@
       <c r="I544" t="n">
         <v>19.26</v>
       </c>
-      <c r="J544" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18677,12 +19401,10 @@
       <c r="I545" t="n">
         <v>19.21</v>
       </c>
-      <c r="J545" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J545" t="inlineStr"/>
       <c r="K545" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L545" t="n">
@@ -18713,15 +19435,15 @@
         <v>-415690640.7933859</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="J546" t="inlineStr"/>
       <c r="K546" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L546" t="n">
@@ -18752,12 +19474,12 @@
         <v>-415699775.3062859</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="J547" t="inlineStr"/>
       <c r="K547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18791,12 +19513,12 @@
         <v>-415659775.3062859</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="J548" t="inlineStr"/>
       <c r="K548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18830,12 +19552,12 @@
         <v>-415607775.3062859</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="J549" t="inlineStr"/>
       <c r="K549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18869,12 +19591,12 @@
         <v>-415607775.3062859</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J550" t="inlineStr"/>
       <c r="K550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18908,12 +19630,12 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J551" t="inlineStr"/>
       <c r="K551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18947,12 +19669,12 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J552" t="inlineStr"/>
       <c r="K552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18986,12 +19708,12 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J553" t="inlineStr"/>
       <c r="K553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19025,12 +19747,12 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
-      </c>
-      <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I554" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J554" t="inlineStr"/>
       <c r="K554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19064,12 +19786,12 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J555" t="inlineStr"/>
       <c r="K555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19103,12 +19825,12 @@
         <v>-415729412.7804859</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
-      </c>
-      <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I556" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J556" t="inlineStr"/>
       <c r="K556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19142,12 +19864,12 @@
         <v>-415714284.630486</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J557" t="inlineStr"/>
       <c r="K557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19181,12 +19903,12 @@
         <v>-415714284.630486</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
-      </c>
-      <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I558" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J558" t="inlineStr"/>
       <c r="K558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19220,12 +19942,12 @@
         <v>-415724432.2319859</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
-      </c>
-      <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I559" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J559" t="inlineStr"/>
       <c r="K559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19259,12 +19981,12 @@
         <v>-415724680.0341859</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="J560" t="inlineStr"/>
       <c r="K560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19298,12 +20020,12 @@
         <v>-415711584.2441859</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
-      </c>
-      <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I561" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J561" t="inlineStr"/>
       <c r="K561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19337,12 +20059,12 @@
         <v>-415711584.2441859</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
-      </c>
-      <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I562" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="J562" t="inlineStr"/>
       <c r="K562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19376,12 +20098,12 @@
         <v>-416096110.3700859</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
-      </c>
-      <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I563" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="J563" t="inlineStr"/>
       <c r="K563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19415,12 +20137,12 @@
         <v>-416064236.4594859</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
-      </c>
-      <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
+        <v>1</v>
+      </c>
+      <c r="I564" t="n">
         <v>19.26</v>
       </c>
+      <c r="J564" t="inlineStr"/>
       <c r="K564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19454,12 +20176,12 @@
         <v>-415846914.5205859</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
-      </c>
-      <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I565" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J565" t="inlineStr"/>
       <c r="K565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19493,12 +20215,12 @@
         <v>-415677789.3288859</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J566" t="inlineStr"/>
       <c r="K566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19532,12 +20254,12 @@
         <v>-415584820.375484</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
-      </c>
-      <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I567" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="J567" t="inlineStr"/>
       <c r="K567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19571,12 +20293,12 @@
         <v>-415650432.592384</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="J568" t="inlineStr"/>
       <c r="K568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19610,12 +20332,12 @@
         <v>-415532310.203784</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
-      </c>
-      <c r="I569" t="inlineStr"/>
-      <c r="J569" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I569" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="J569" t="inlineStr"/>
       <c r="K569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19649,12 +20371,12 @@
         <v>-416099996.5913841</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
-      <c r="J570" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="J570" t="inlineStr"/>
       <c r="K570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19688,12 +20410,12 @@
         <v>-416099996.5913841</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
-      <c r="J571" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J571" t="inlineStr"/>
       <c r="K571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19727,12 +20449,12 @@
         <v>-415182132.0684432</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J572" t="inlineStr"/>
       <c r="K572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19766,12 +20488,12 @@
         <v>-415186521.0056432</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="J573" t="inlineStr"/>
       <c r="K573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19805,12 +20527,12 @@
         <v>-415109132.0132433</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="J574" t="inlineStr"/>
       <c r="K574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19844,12 +20566,12 @@
         <v>-415083343.3041432</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="J575" t="inlineStr"/>
       <c r="K575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19883,12 +20605,12 @@
         <v>-415083418.3041432</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="J576" t="inlineStr"/>
       <c r="K576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19922,12 +20644,12 @@
         <v>-415115025.9041433</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J577" t="inlineStr"/>
       <c r="K577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19961,12 +20683,12 @@
         <v>-415115025.9041433</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="J578" t="inlineStr"/>
       <c r="K578" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20000,12 +20722,12 @@
         <v>-415081985.6764433</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20039,12 +20761,12 @@
         <v>-415086817.8419433</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20078,12 +20800,12 @@
         <v>-415087766.3419433</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20117,12 +20839,12 @@
         <v>-415151852.6269433</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
-      </c>
-      <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
+        <v>1</v>
+      </c>
+      <c r="I582" t="n">
         <v>19.26</v>
       </c>
+      <c r="J582" t="inlineStr"/>
       <c r="K582" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20156,12 +20878,12 @@
         <v>-415151803.6199433</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
-      </c>
-      <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I583" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J583" t="inlineStr"/>
       <c r="K583" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20195,12 +20917,12 @@
         <v>-415435661.3456433</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
-      </c>
-      <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I584" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J584" t="inlineStr"/>
       <c r="K584" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20234,12 +20956,12 @@
         <v>-415433732.2956433</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
-      </c>
-      <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I585" t="n">
+        <v>19.2</v>
+      </c>
+      <c r="J585" t="inlineStr"/>
       <c r="K585" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20273,12 +20995,12 @@
         <v>-415433438.9321433</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
-      </c>
-      <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I586" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="J586" t="inlineStr"/>
       <c r="K586" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20312,12 +21034,12 @@
         <v>-415434513.4321433</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
-      </c>
-      <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I587" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J587" t="inlineStr"/>
       <c r="K587" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20351,12 +21073,12 @@
         <v>-415434513.4321433</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
-      </c>
-      <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I588" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J588" t="inlineStr"/>
       <c r="K588" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20390,12 +21112,12 @@
         <v>-415480419.0517433</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
-      </c>
-      <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I589" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J589" t="inlineStr"/>
       <c r="K589" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20429,12 +21151,12 @@
         <v>-415432199.2273433</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
-      </c>
-      <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I590" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="J590" t="inlineStr"/>
       <c r="K590" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20468,12 +21190,12 @@
         <v>-415432199.2273433</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J591" t="inlineStr"/>
       <c r="K591" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20507,12 +21229,12 @@
         <v>-415432026.2641881</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
-      </c>
-      <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I592" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J592" t="inlineStr"/>
       <c r="K592" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20546,12 +21268,12 @@
         <v>-415640801.5964881</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
-      </c>
-      <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I593" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="J593" t="inlineStr"/>
       <c r="K593" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20585,12 +21307,12 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="J594" t="inlineStr"/>
       <c r="K594" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20624,12 +21346,12 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
-      </c>
-      <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I595" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="J595" t="inlineStr"/>
       <c r="K595" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20663,12 +21385,12 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
-      </c>
-      <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I596" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="J596" t="inlineStr"/>
       <c r="K596" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20702,12 +21424,12 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
-      </c>
-      <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I597" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="J597" t="inlineStr"/>
       <c r="K597" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20741,12 +21463,12 @@
         <v>-415640511.2828881</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
-      </c>
-      <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I598" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="J598" t="inlineStr"/>
       <c r="K598" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20780,12 +21502,12 @@
         <v>-415638229.2885881</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
-      </c>
-      <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I599" t="n">
+        <v>19.27</v>
+      </c>
+      <c r="J599" t="inlineStr"/>
       <c r="K599" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20819,12 +21541,12 @@
         <v>-415638229.2885881</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
-      </c>
-      <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I600" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J600" t="inlineStr"/>
       <c r="K600" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20858,12 +21580,12 @@
         <v>-415951392.2869881</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
-      </c>
-      <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I601" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J601" t="inlineStr"/>
       <c r="K601" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20897,12 +21619,12 @@
         <v>-415360867.1824881</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
-      </c>
-      <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I602" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="J602" t="inlineStr"/>
       <c r="K602" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20936,12 +21658,12 @@
         <v>-415380229.7682881</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
-      </c>
-      <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I603" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J603" t="inlineStr"/>
       <c r="K603" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20975,12 +21697,12 @@
         <v>-415379709.7682881</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
-      </c>
-      <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I604" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="J604" t="inlineStr"/>
       <c r="K604" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21014,12 +21736,12 @@
         <v>-415385241.2333881</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
-      </c>
-      <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I605" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J605" t="inlineStr"/>
       <c r="K605" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21053,12 +21775,12 @@
         <v>-415385241.2333881</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
-      </c>
-      <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I606" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="J606" t="inlineStr"/>
       <c r="K606" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21092,12 +21814,12 @@
         <v>-415819275.268788</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
-      </c>
-      <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I607" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="J607" t="inlineStr"/>
       <c r="K607" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21131,12 +21853,12 @@
         <v>-415825534.109688</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
-      </c>
-      <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I608" t="n">
+        <v>19.21</v>
+      </c>
+      <c r="J608" t="inlineStr"/>
       <c r="K608" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21170,12 +21892,12 @@
         <v>-415824952.9728881</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
-      </c>
-      <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I609" t="n">
+        <v>19.18</v>
+      </c>
+      <c r="J609" t="inlineStr"/>
       <c r="K609" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21209,12 +21931,12 @@
         <v>-415824952.9728881</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
-      </c>
-      <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I610" t="n">
+        <v>19.28</v>
+      </c>
+      <c r="J610" t="inlineStr"/>
       <c r="K610" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21251,9 +21973,7 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J611" t="inlineStr"/>
       <c r="K611" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21290,9 +22010,7 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J612" t="inlineStr"/>
       <c r="K612" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21329,9 +22047,7 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J613" t="inlineStr"/>
       <c r="K613" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21365,12 +22081,12 @@
         <v>-415463291.866188</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
-      </c>
-      <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I614" t="n">
+        <v>19.24</v>
+      </c>
+      <c r="J614" t="inlineStr"/>
       <c r="K614" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21407,9 +22123,7 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J615" t="inlineStr"/>
       <c r="K615" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21446,9 +22160,7 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J616" t="inlineStr"/>
       <c r="K616" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21487,9 +22199,7 @@
       <c r="I617" t="n">
         <v>19.29</v>
       </c>
-      <c r="J617" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J617" t="inlineStr"/>
       <c r="K617" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21523,14 +22233,10 @@
         <v>-415535802.407088</v>
       </c>
       <c r="H618" t="n">
-        <v>1</v>
-      </c>
-      <c r="I618" t="n">
-        <v>19.3</v>
-      </c>
-      <c r="J618" t="n">
-        <v>19.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I618" t="inlineStr"/>
+      <c r="J618" t="inlineStr"/>
       <c r="K618" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21567,9 +22273,7 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J619" t="inlineStr"/>
       <c r="K619" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21606,9 +22310,7 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J620" t="inlineStr"/>
       <c r="K620" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21645,9 +22347,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J621" t="inlineStr"/>
       <c r="K621" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21681,14 +22381,10 @@
         <v>-415451802.154788</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
-      </c>
-      <c r="I622" t="n">
-        <v>19.29</v>
-      </c>
-      <c r="J622" t="n">
-        <v>19.26</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I622" t="inlineStr"/>
+      <c r="J622" t="inlineStr"/>
       <c r="K622" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21725,9 +22421,7 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J623" t="inlineStr"/>
       <c r="K623" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21764,9 +22458,7 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J624" t="inlineStr"/>
       <c r="K624" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21803,9 +22495,7 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J625" t="inlineStr"/>
       <c r="K625" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21842,9 +22532,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J626" t="inlineStr"/>
       <c r="K626" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21881,9 +22569,7 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J627" t="inlineStr"/>
       <c r="K627" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21920,9 +22606,7 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J628" t="inlineStr"/>
       <c r="K628" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21959,9 +22643,7 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J629" t="inlineStr"/>
       <c r="K629" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21995,12 +22677,12 @@
         <v>-415191317.441188</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
-      </c>
-      <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I630" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J630" t="inlineStr"/>
       <c r="K630" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22034,12 +22716,12 @@
         <v>-415176554.9550335</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
-      </c>
-      <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I631" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J631" t="inlineStr"/>
       <c r="K631" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22073,12 +22755,12 @@
         <v>-415288080.4861335</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
-      </c>
-      <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I632" t="n">
+        <v>19.37</v>
+      </c>
+      <c r="J632" t="inlineStr"/>
       <c r="K632" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22112,12 +22794,12 @@
         <v>-415285456.4565334</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
-      </c>
-      <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I633" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J633" t="inlineStr"/>
       <c r="K633" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22151,12 +22833,12 @@
         <v>-415246767.7908334</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
-      </c>
-      <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I634" t="n">
+        <v>19.39</v>
+      </c>
+      <c r="J634" t="inlineStr"/>
       <c r="K634" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22193,9 +22875,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J635" t="inlineStr"/>
       <c r="K635" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22232,9 +22912,7 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J636" t="inlineStr"/>
       <c r="K636" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22268,12 +22946,12 @@
         <v>-414519664.848836</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
-      </c>
-      <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I637" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J637" t="inlineStr"/>
       <c r="K637" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22307,12 +22985,12 @@
         <v>-414519820.901036</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
-      </c>
-      <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I638" t="n">
+        <v>19.43</v>
+      </c>
+      <c r="J638" t="inlineStr"/>
       <c r="K638" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22346,12 +23024,12 @@
         <v>-414518720.901036</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
-      </c>
-      <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I639" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J639" t="inlineStr"/>
       <c r="K639" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22388,9 +23066,7 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J640" t="inlineStr"/>
       <c r="K640" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22424,12 +23100,12 @@
         <v>-414520297.626936</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
-      </c>
-      <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I641" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J641" t="inlineStr"/>
       <c r="K641" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22463,12 +23139,12 @@
         <v>-414480297.626936</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
-      </c>
-      <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I642" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J642" t="inlineStr"/>
       <c r="K642" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22505,9 +23181,7 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J643" t="inlineStr"/>
       <c r="K643" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22544,9 +23218,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J644" t="inlineStr"/>
       <c r="K644" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22583,9 +23255,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J645" t="inlineStr"/>
       <c r="K645" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22622,9 +23292,7 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J646" t="inlineStr"/>
       <c r="K646" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22661,9 +23329,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J647" t="inlineStr"/>
       <c r="K647" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22700,9 +23366,7 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J648" t="inlineStr"/>
       <c r="K648" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22739,9 +23403,7 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22778,9 +23440,7 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J650" t="inlineStr"/>
       <c r="K650" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22817,9 +23477,7 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J651" t="inlineStr"/>
       <c r="K651" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22856,9 +23514,7 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J652" t="inlineStr"/>
       <c r="K652" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22895,9 +23551,7 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J653" t="inlineStr"/>
       <c r="K653" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22934,9 +23588,7 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J654" t="inlineStr"/>
       <c r="K654" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22973,9 +23625,7 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J655" t="inlineStr"/>
       <c r="K655" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23012,9 +23662,7 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J656" t="inlineStr"/>
       <c r="K656" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23048,12 +23696,12 @@
         <v>-415335027.8462583</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I657" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J657" t="inlineStr"/>
       <c r="K657" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23090,9 +23738,7 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J658" t="inlineStr"/>
       <c r="K658" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23126,12 +23772,12 @@
         <v>-415349231.6988583</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I659" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J659" t="inlineStr"/>
       <c r="K659" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23165,12 +23811,12 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I660" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="J660" t="inlineStr"/>
       <c r="K660" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23204,12 +23850,12 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23243,12 +23889,12 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J662" t="inlineStr"/>
       <c r="K662" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23282,12 +23928,12 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I663" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J663" t="inlineStr"/>
       <c r="K663" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23321,12 +23967,12 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I664" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J664" t="inlineStr"/>
       <c r="K664" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23360,12 +24006,12 @@
         <v>-415190519.1550583</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I665" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J665" t="inlineStr"/>
       <c r="K665" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23399,12 +24045,12 @@
         <v>-415190719.1550583</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I666" t="n">
+        <v>19.35</v>
+      </c>
+      <c r="J666" t="inlineStr"/>
       <c r="K666" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23438,12 +24084,12 @@
         <v>-415189122.2110583</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I667" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="J667" t="inlineStr"/>
       <c r="K667" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23477,12 +24123,12 @@
         <v>-415348604.6867583</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I668" t="n">
+        <v>19.34</v>
+      </c>
+      <c r="J668" t="inlineStr"/>
       <c r="K668" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23516,12 +24162,12 @@
         <v>-415350261.7763584</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I669" t="n">
+        <v>19.31</v>
+      </c>
+      <c r="J669" t="inlineStr"/>
       <c r="K669" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23555,12 +24201,12 @@
         <v>-415350261.7763584</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I670" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J670" t="inlineStr"/>
       <c r="K670" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23594,12 +24240,12 @@
         <v>-415350217.3092583</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I671" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="J671" t="inlineStr"/>
       <c r="K671" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23633,12 +24279,12 @@
         <v>-415350217.3092583</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I672" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J672" t="inlineStr"/>
       <c r="K672" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23672,12 +24318,12 @@
         <v>-415759379.6726583</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I673" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="J673" t="inlineStr"/>
       <c r="K673" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23711,12 +24357,12 @@
         <v>-415362313.9481583</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I674" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="J674" t="inlineStr"/>
       <c r="K674" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23750,12 +24396,12 @@
         <v>-415353794.8618583</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>19.26</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I675" t="n">
+        <v>19.32</v>
+      </c>
+      <c r="J675" t="inlineStr"/>
       <c r="K675" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23792,9 +24438,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J676" t="inlineStr"/>
       <c r="K676" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23831,9 +24475,7 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J677" t="inlineStr"/>
       <c r="K677" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23870,9 +24512,7 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J678" t="inlineStr"/>
       <c r="K678" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23909,9 +24549,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J679" t="inlineStr"/>
       <c r="K679" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23948,9 +24586,7 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J680" t="inlineStr"/>
       <c r="K680" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23987,9 +24623,7 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J681" t="inlineStr"/>
       <c r="K681" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24026,9 +24660,7 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J682" t="inlineStr"/>
       <c r="K682" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24065,9 +24697,7 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J683" t="inlineStr"/>
       <c r="K683" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24104,9 +24734,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J684" t="inlineStr"/>
       <c r="K684" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24143,9 +24771,7 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J685" t="inlineStr"/>
       <c r="K685" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24182,9 +24808,7 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J686" t="inlineStr"/>
       <c r="K686" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24221,9 +24845,7 @@
         <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J687" t="inlineStr"/>
       <c r="K687" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24260,9 +24882,7 @@
         <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J688" t="inlineStr"/>
       <c r="K688" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24299,9 +24919,7 @@
         <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J689" t="inlineStr"/>
       <c r="K689" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24338,9 +24956,7 @@
         <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J690" t="inlineStr"/>
       <c r="K690" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24377,9 +24993,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J691" t="inlineStr"/>
       <c r="K691" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24416,9 +25030,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J692" t="inlineStr"/>
       <c r="K692" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24455,9 +25067,7 @@
         <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J693" t="inlineStr"/>
       <c r="K693" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24494,9 +25104,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J694" t="inlineStr"/>
       <c r="K694" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24530,20 +25138,16 @@
         <v>-411614344.6350557</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>19.26</v>
-      </c>
+      <c r="J695" t="inlineStr"/>
       <c r="K695" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L695" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L695" t="inlineStr"/>
       <c r="M695" t="inlineStr"/>
     </row>
     <row r="696">
@@ -24569,17 +25173,11 @@
         <v>-410874509.1337557</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -24608,17 +25206,11 @@
         <v>-411403667.2419558</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -24647,17 +25239,11 @@
         <v>-411403667.2419558</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -24686,17 +25272,11 @@
         <v>-410719376.9060557</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -24725,17 +25305,11 @@
         <v>-411109704.1546558</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -24764,17 +25338,11 @@
         <v>-411109704.1546558</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -24803,17 +25371,11 @@
         <v>-410984361.5932558</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -24842,17 +25404,11 @@
         <v>-411278638.9961557</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -24881,17 +25437,11 @@
         <v>-411089856.3641557</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -24920,17 +25470,11 @@
         <v>-411089623.3854323</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -24959,17 +25503,11 @@
         <v>-410849731.5776323</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24998,17 +25536,11 @@
         <v>-410881720.6989323</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25037,17 +25569,11 @@
         <v>-410904484.2483323</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25076,17 +25602,11 @@
         <v>-410748189.9122323</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25115,17 +25635,11 @@
         <v>-410758281.3992323</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
-      <c r="J710" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25154,17 +25668,11 @@
         <v>-410846532.7181323</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
-      <c r="J711" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25193,17 +25701,11 @@
         <v>-410846532.7181323</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
-      <c r="J712" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25232,17 +25734,11 @@
         <v>-410661642.2759323</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
-      <c r="J713" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25271,17 +25767,11 @@
         <v>-410713349.0190322</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
-      <c r="J714" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25310,17 +25800,11 @@
         <v>-410757679.0786322</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
-      <c r="J715" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25349,17 +25833,11 @@
         <v>-410757679.0786322</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
-      <c r="J716" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25388,17 +25866,11 @@
         <v>-410741625.8814322</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
-      <c r="J717" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25427,17 +25899,11 @@
         <v>-410893891.5862322</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
-      <c r="J718" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -25466,17 +25932,11 @@
         <v>-410922698.2633322</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
-      <c r="J719" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -25505,17 +25965,11 @@
         <v>-410922576.2847499</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -25544,17 +25998,11 @@
         <v>-410923003.2057499</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -25583,17 +26031,11 @@
         <v>-411080795.26695</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -25622,17 +26064,11 @@
         <v>-410986729.64305</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -25661,17 +26097,11 @@
         <v>-410981372.32305</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
-      <c r="J724" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -25700,17 +26130,11 @@
         <v>-411101200.7413499</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
-      <c r="J725" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -25739,17 +26163,11 @@
         <v>-410242994.43295</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -25778,17 +26196,11 @@
         <v>-410250777.1620499</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K727" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -25817,17 +26229,11 @@
         <v>-410606301.02415</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K728" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -25856,17 +26262,11 @@
         <v>-410439994.49935</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K729" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -25895,17 +26295,11 @@
         <v>-410439994.49935</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
-      <c r="J730" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K730" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -25934,17 +26328,11 @@
         <v>-410395909.374299</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K731" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25973,17 +26361,11 @@
         <v>-410400909.374299</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K732" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -26012,17 +26394,11 @@
         <v>-410080836.472299</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
-      <c r="J733" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K733" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -26051,17 +26427,11 @@
         <v>-410173163.857799</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
-      <c r="J734" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K734" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -26090,17 +26460,11 @@
         <v>-410173163.857799</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
-      <c r="J735" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K735" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -26132,14 +26496,8 @@
         <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
-      <c r="J736" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K736" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -26171,14 +26529,8 @@
         <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
-      <c r="J737" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K737" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -26207,17 +26559,11 @@
         <v>-410079194.3693614</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
-      <c r="J738" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K738" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -26249,14 +26595,8 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J739" t="inlineStr"/>
+      <c r="K739" t="inlineStr"/>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -26288,14 +26628,8 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J740" t="inlineStr"/>
+      <c r="K740" t="inlineStr"/>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26327,14 +26661,8 @@
         <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
-      <c r="J741" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J741" t="inlineStr"/>
+      <c r="K741" t="inlineStr"/>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -26366,14 +26694,8 @@
         <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
-      <c r="J742" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -26405,14 +26727,8 @@
         <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
-      <c r="J743" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -26444,14 +26760,8 @@
         <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -26483,14 +26793,8 @@
         <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -26522,14 +26826,8 @@
         <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -26561,14 +26859,8 @@
         <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -26600,14 +26892,8 @@
         <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -26639,14 +26925,8 @@
         <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -26678,14 +26958,8 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -26717,14 +26991,8 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26756,14 +27024,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26795,14 +27057,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26834,14 +27090,8 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26873,14 +27123,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -26912,14 +27156,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26951,14 +27189,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26990,14 +27222,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -27029,14 +27255,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -27068,14 +27288,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -27107,14 +27321,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -27146,14 +27354,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -27185,14 +27387,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -27224,14 +27420,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -27263,14 +27453,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -27302,14 +27486,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -27341,14 +27519,8 @@
         <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -27380,14 +27552,8 @@
         <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -27419,14 +27585,8 @@
         <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
